--- a/Doc/ExcelConfig/Datas/dota/PoolConfig.xlsx
+++ b/Doc/ExcelConfig/Datas/dota/PoolConfig.xlsx
@@ -814,7 +814,7 @@
     <t>巫医</t>
   </si>
   <si>
-    <t>building_hero_zeus</t>
+    <t>building_hero_zuus</t>
   </si>
   <si>
     <t>宙斯</t>
@@ -1809,11 +1809,11 @@
   <dimension ref="A1:H376"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="8" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="3" topLeftCell="I121" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K13" sqref="K13"/>
+      <selection pane="bottomRight" activeCell="K128" sqref="K128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
@@ -1872,7 +1872,6 @@
       <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2"/>
       <c r="D3" s="4" t="s">
         <v>11</v>
       </c>

--- a/Doc/ExcelConfig/Datas/dota/PoolConfig.xlsx
+++ b/Doc/ExcelConfig/Datas/dota/PoolConfig.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="362">
   <si>
     <t>##</t>
   </si>
@@ -868,7 +868,241 @@
     <t>item_imba_manta_2</t>
   </si>
   <si>
-    <t>n1_tower_drop_1</t>
+    <t>sect_invent_a</t>
+  </si>
+  <si>
+    <t>item_shop_small_gold_bag</t>
+  </si>
+  <si>
+    <t>item_shop_draw_card_v1</t>
+  </si>
+  <si>
+    <t>item_shop_addstar_green</t>
+  </si>
+  <si>
+    <t>item_shop_addstar_blue</t>
+  </si>
+  <si>
+    <t>sect_invent_b</t>
+  </si>
+  <si>
+    <t>item_shop_small_wood_bag</t>
+  </si>
+  <si>
+    <t>item_shop_draw_card_v2</t>
+  </si>
+  <si>
+    <t>item_shop_random_card_purple</t>
+  </si>
+  <si>
+    <t>item_shop_stat_strength_book</t>
+  </si>
+  <si>
+    <t>item_shop_stat_agility_book</t>
+  </si>
+  <si>
+    <t>item_shop_stat_intelligence_book</t>
+  </si>
+  <si>
+    <t>item_shop_addstar_purple</t>
+  </si>
+  <si>
+    <t>sect_invent_c</t>
+  </si>
+  <si>
+    <t>item_shop_small_soulcrystal_bag</t>
+  </si>
+  <si>
+    <t>item_shop_draw_card_v3</t>
+  </si>
+  <si>
+    <t>item_shop_random_card_gold</t>
+  </si>
+  <si>
+    <t>item_shop_addstar_gold</t>
+  </si>
+  <si>
+    <t>神器</t>
+  </si>
+  <si>
+    <t>item_artifact_microcosm</t>
+  </si>
+  <si>
+    <t>item_artifact_ironwood_tree</t>
+  </si>
+  <si>
+    <t>item_artifact_death_note</t>
+  </si>
+  <si>
+    <t>item_artifact_plunder_stone</t>
+  </si>
+  <si>
+    <t>item_artifact_tome_of_knowledge</t>
+  </si>
+  <si>
+    <t>item_artifact_psychic_headband</t>
+  </si>
+  <si>
+    <t>item_artifact_pure_poison</t>
+  </si>
+  <si>
+    <t>item_artifact_lunpan</t>
+  </si>
+  <si>
+    <t>item_artifact_reincarnation_lamp</t>
+  </si>
+  <si>
+    <t>item_artifact_demagicking_maul</t>
+  </si>
+  <si>
+    <t>item_artifact_bottle_water</t>
+  </si>
+  <si>
+    <t>item_artifact_demon_potion</t>
+  </si>
+  <si>
+    <t>item_artifact_pocket_roshan</t>
+  </si>
+  <si>
+    <t>item_artifact_ancient_janggo</t>
+  </si>
+  <si>
+    <t>item_artifact_trading_license</t>
+  </si>
+  <si>
+    <t>item_artifact_philosophers_stone</t>
+  </si>
+  <si>
+    <t>item_artifact_courier</t>
+  </si>
+  <si>
+    <t>item_artifact_vambrace_str</t>
+  </si>
+  <si>
+    <t>item_artifact_vambrace_agi</t>
+  </si>
+  <si>
+    <t>item_artifact_vambrace_int</t>
+  </si>
+  <si>
+    <t>item_artifact_aeon_disk</t>
+  </si>
+  <si>
+    <t>item_artifact_grandmasters_glaive</t>
+  </si>
+  <si>
+    <t>item_artifact_trusty_shovel</t>
+  </si>
+  <si>
+    <t>item_artifact_quicksilver_amulet</t>
+  </si>
+  <si>
+    <t>item_artifact_tango_single</t>
+  </si>
+  <si>
+    <t>item_artifact_overwhelming_blink</t>
+  </si>
+  <si>
+    <t>item_artifact_bottle_regeneration</t>
+  </si>
+  <si>
+    <t>item_artifact_metor_ring</t>
+  </si>
+  <si>
+    <t>item_artifact_golden_stone</t>
+  </si>
+  <si>
+    <t>item_artifact_remake_master</t>
+  </si>
+  <si>
+    <t>item_artifact_soul_spirit</t>
+  </si>
+  <si>
+    <t>item_artifact_bottle_doubledamage</t>
+  </si>
+  <si>
+    <t>item_artifact_bottle_arcane</t>
+  </si>
+  <si>
+    <t>item_artifact_arcane_blink</t>
+  </si>
+  <si>
+    <t>item_artifact_voodoo_mask</t>
+  </si>
+  <si>
+    <t>item_artifact_pelt_of_wolf</t>
+  </si>
+  <si>
+    <t>item_artifact_meteor_hammer</t>
+  </si>
+  <si>
+    <t>item_artifact_star_mace</t>
+  </si>
+  <si>
+    <t>item_artifact_quarterstaff</t>
+  </si>
+  <si>
+    <t>item_artifact_grove_bow</t>
+  </si>
+  <si>
+    <t>item_artifact_falcon_blade</t>
+  </si>
+  <si>
+    <t>item_artifact_infused_raindrop</t>
+  </si>
+  <si>
+    <t>item_artifact_repair_kit</t>
+  </si>
+  <si>
+    <t>item_artifact_bottle_bounty</t>
+  </si>
+  <si>
+    <t>item_artifact_summon_master</t>
+  </si>
+  <si>
+    <t>item_artifact_fathorse_lose</t>
+  </si>
+  <si>
+    <t>item_artifact_liren</t>
+  </si>
+  <si>
+    <t>item_artifact_yingguang</t>
+  </si>
+  <si>
+    <t>item_artifact_shengguang</t>
+  </si>
+  <si>
+    <t>item_artifact_dogplayer</t>
+  </si>
+  <si>
+    <t>item_artifact_atkring</t>
+  </si>
+  <si>
+    <t>item_artifact_skillring</t>
+  </si>
+  <si>
+    <t>item_artifact_ascetic_cap</t>
+  </si>
+  <si>
+    <t>item_artifact_part_of_contracts</t>
+  </si>
+  <si>
+    <t>item_artifact_bottle_empty</t>
+  </si>
+  <si>
+    <t>召唤塔死亡掉落宝箱</t>
+  </si>
+  <si>
+    <t>item_shop_equipchoose_c</t>
+  </si>
+  <si>
+    <t>item_shop_equipchoose_b</t>
+  </si>
+  <si>
+    <t>item_shop_equipchoose_a</t>
+  </si>
+  <si>
+    <t>item_shop_equipchoose_s</t>
   </si>
 </sst>
 </file>
@@ -1509,7 +1743,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="31" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1555,6 +1789,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1874,14 +2117,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H264"/>
+  <dimension ref="A1:H339"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="3" topLeftCell="I262" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="3" topLeftCell="I325" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B264" sqref="B264"/>
+      <selection pane="bottomRight" activeCell="B336" sqref="B336"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
@@ -1889,7 +2132,7 @@
     <col min="1" max="1" width="8.16666666666667" customWidth="1"/>
     <col min="2" max="2" width="17.25" style="3" customWidth="1"/>
     <col min="3" max="3" width="13.8333333333333" style="3" customWidth="1"/>
-    <col min="4" max="4" width="8.75833333333333" customWidth="1"/>
+    <col min="4" max="4" width="19.4166666666667" customWidth="1"/>
     <col min="5" max="5" width="31.4416666666667" customWidth="1"/>
     <col min="6" max="6" width="8.91666666666667" customWidth="1"/>
     <col min="7" max="7" width="10.25" customWidth="1"/>
@@ -6432,11 +6675,1139 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="2:3">
-      <c r="B264" s="3" t="s">
+    <row r="264" ht="15.5" spans="2:8">
+      <c r="B264" s="3">
+        <v>1009</v>
+      </c>
+      <c r="C264" s="3">
+        <v>1</v>
+      </c>
+      <c r="D264" t="s">
         <v>283</v>
       </c>
-      <c r="C264" s="3">
+      <c r="E264" s="19" t="s">
+        <v>284</v>
+      </c>
+      <c r="F264" s="6">
+        <v>1</v>
+      </c>
+      <c r="G264" s="6">
+        <v>1</v>
+      </c>
+      <c r="H264" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" ht="15.5" spans="5:8">
+      <c r="E265" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="F265" s="6">
+        <v>1</v>
+      </c>
+      <c r="G265" s="6">
+        <v>1</v>
+      </c>
+      <c r="H265" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" ht="15.5" spans="5:8">
+      <c r="E266" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="F266" s="6">
+        <v>1</v>
+      </c>
+      <c r="G266" s="6">
+        <v>1</v>
+      </c>
+      <c r="H266" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" ht="15.5" spans="5:8">
+      <c r="E267" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="F267" s="6">
+        <v>1</v>
+      </c>
+      <c r="G267" s="6">
+        <v>1</v>
+      </c>
+      <c r="H267" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" ht="15.5" spans="2:8">
+      <c r="B268" s="3">
+        <v>1010</v>
+      </c>
+      <c r="C268" s="3">
+        <v>1</v>
+      </c>
+      <c r="D268" t="s">
+        <v>288</v>
+      </c>
+      <c r="E268" s="19" t="s">
+        <v>289</v>
+      </c>
+      <c r="F268" s="6">
+        <v>1</v>
+      </c>
+      <c r="G268" s="6">
+        <v>1</v>
+      </c>
+      <c r="H268" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" ht="15.5" spans="5:8">
+      <c r="E269" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="F269" s="6">
+        <v>1</v>
+      </c>
+      <c r="G269" s="6">
+        <v>1</v>
+      </c>
+      <c r="H269" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" ht="15.5" spans="5:8">
+      <c r="E270" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="F270" s="6">
+        <v>1</v>
+      </c>
+      <c r="G270" s="6">
+        <v>1</v>
+      </c>
+      <c r="H270" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" ht="15.5" spans="5:8">
+      <c r="E271" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="F271" s="6">
+        <v>1</v>
+      </c>
+      <c r="G271" s="6">
+        <v>1</v>
+      </c>
+      <c r="H271" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" ht="15.5" spans="5:8">
+      <c r="E272" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="F272" s="6">
+        <v>1</v>
+      </c>
+      <c r="G272" s="6">
+        <v>1</v>
+      </c>
+      <c r="H272" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" ht="15.5" spans="5:8">
+      <c r="E273" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="F273" s="6">
+        <v>1</v>
+      </c>
+      <c r="G273" s="6">
+        <v>1</v>
+      </c>
+      <c r="H273" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" ht="15.5" spans="5:8">
+      <c r="E274" s="19" t="s">
+        <v>294</v>
+      </c>
+      <c r="F274" s="6">
+        <v>1</v>
+      </c>
+      <c r="G274" s="6">
+        <v>1</v>
+      </c>
+      <c r="H274" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" ht="15.5" spans="5:8">
+      <c r="E275" s="19" t="s">
+        <v>295</v>
+      </c>
+      <c r="F275" s="6">
+        <v>1</v>
+      </c>
+      <c r="G275" s="6">
+        <v>1</v>
+      </c>
+      <c r="H275" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" ht="15.5" spans="2:8">
+      <c r="B276" s="3">
+        <v>1011</v>
+      </c>
+      <c r="C276" s="3">
+        <v>1</v>
+      </c>
+      <c r="D276" t="s">
+        <v>296</v>
+      </c>
+      <c r="E276" s="19" t="s">
+        <v>297</v>
+      </c>
+      <c r="F276" s="6">
+        <v>1</v>
+      </c>
+      <c r="G276" s="6">
+        <v>1</v>
+      </c>
+      <c r="H276" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" ht="15.5" spans="5:8">
+      <c r="E277" s="19" t="s">
+        <v>298</v>
+      </c>
+      <c r="F277" s="6">
+        <v>1</v>
+      </c>
+      <c r="G277" s="6">
+        <v>1</v>
+      </c>
+      <c r="H277" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" ht="15.5" spans="5:8">
+      <c r="E278" s="19" t="s">
+        <v>295</v>
+      </c>
+      <c r="F278" s="6">
+        <v>1</v>
+      </c>
+      <c r="G278" s="6">
+        <v>1</v>
+      </c>
+      <c r="H278" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" ht="15.5" spans="5:8">
+      <c r="E279" s="19" t="s">
+        <v>299</v>
+      </c>
+      <c r="F279" s="6">
+        <v>1</v>
+      </c>
+      <c r="G279" s="6">
+        <v>1</v>
+      </c>
+      <c r="H279" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" ht="15.5" spans="5:8">
+      <c r="E280" s="19" t="s">
+        <v>300</v>
+      </c>
+      <c r="F280" s="6">
+        <v>1</v>
+      </c>
+      <c r="G280" s="6">
+        <v>1</v>
+      </c>
+      <c r="H280" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="2:8">
+      <c r="B281" s="3">
+        <v>1012</v>
+      </c>
+      <c r="C281" s="3">
+        <v>1</v>
+      </c>
+      <c r="D281" t="s">
+        <v>301</v>
+      </c>
+      <c r="E281" s="20" t="s">
+        <v>302</v>
+      </c>
+      <c r="F281" s="6">
+        <v>1</v>
+      </c>
+      <c r="G281" s="6">
+        <v>1</v>
+      </c>
+      <c r="H281" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="5:8">
+      <c r="E282" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="F282" s="6">
+        <v>1</v>
+      </c>
+      <c r="G282" s="6">
+        <v>1</v>
+      </c>
+      <c r="H282" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="5:8">
+      <c r="E283" s="20" t="s">
+        <v>304</v>
+      </c>
+      <c r="F283" s="6">
+        <v>1</v>
+      </c>
+      <c r="G283" s="6">
+        <v>1</v>
+      </c>
+      <c r="H283" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="5:8">
+      <c r="E284" s="20" t="s">
+        <v>305</v>
+      </c>
+      <c r="F284" s="6">
+        <v>1</v>
+      </c>
+      <c r="G284" s="6">
+        <v>1</v>
+      </c>
+      <c r="H284" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="5:8">
+      <c r="E285" s="20" t="s">
+        <v>306</v>
+      </c>
+      <c r="F285" s="6">
+        <v>1</v>
+      </c>
+      <c r="G285" s="6">
+        <v>1</v>
+      </c>
+      <c r="H285" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="5:8">
+      <c r="E286" s="20" t="s">
+        <v>307</v>
+      </c>
+      <c r="F286" s="6">
+        <v>1</v>
+      </c>
+      <c r="G286" s="6">
+        <v>1</v>
+      </c>
+      <c r="H286" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="5:8">
+      <c r="E287" s="20" t="s">
+        <v>308</v>
+      </c>
+      <c r="F287" s="6">
+        <v>1</v>
+      </c>
+      <c r="G287" s="6">
+        <v>1</v>
+      </c>
+      <c r="H287" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="5:8">
+      <c r="E288" s="20" t="s">
+        <v>309</v>
+      </c>
+      <c r="F288" s="6">
+        <v>1</v>
+      </c>
+      <c r="G288" s="6">
+        <v>1</v>
+      </c>
+      <c r="H288" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="5:8">
+      <c r="E289" s="20" t="s">
+        <v>310</v>
+      </c>
+      <c r="F289" s="6">
+        <v>1</v>
+      </c>
+      <c r="G289" s="6">
+        <v>1</v>
+      </c>
+      <c r="H289" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="5:8">
+      <c r="E290" s="20" t="s">
+        <v>311</v>
+      </c>
+      <c r="F290" s="6">
+        <v>1</v>
+      </c>
+      <c r="G290" s="6">
+        <v>1</v>
+      </c>
+      <c r="H290" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="5:8">
+      <c r="E291" s="20" t="s">
+        <v>312</v>
+      </c>
+      <c r="F291" s="6">
+        <v>1</v>
+      </c>
+      <c r="G291" s="6">
+        <v>1</v>
+      </c>
+      <c r="H291" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="5:8">
+      <c r="E292" s="20" t="s">
+        <v>313</v>
+      </c>
+      <c r="F292" s="6">
+        <v>1</v>
+      </c>
+      <c r="G292" s="6">
+        <v>1</v>
+      </c>
+      <c r="H292" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="5:8">
+      <c r="E293" s="20" t="s">
+        <v>314</v>
+      </c>
+      <c r="F293" s="6">
+        <v>1</v>
+      </c>
+      <c r="G293" s="6">
+        <v>1</v>
+      </c>
+      <c r="H293" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="5:8">
+      <c r="E294" s="20" t="s">
+        <v>315</v>
+      </c>
+      <c r="F294" s="6">
+        <v>1</v>
+      </c>
+      <c r="G294" s="6">
+        <v>1</v>
+      </c>
+      <c r="H294" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="5:8">
+      <c r="E295" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="F295" s="6">
+        <v>1</v>
+      </c>
+      <c r="G295" s="6">
+        <v>1</v>
+      </c>
+      <c r="H295" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="5:8">
+      <c r="E296" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="F296" s="6">
+        <v>1</v>
+      </c>
+      <c r="G296" s="6">
+        <v>1</v>
+      </c>
+      <c r="H296" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="5:8">
+      <c r="E297" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="F297" s="6">
+        <v>1</v>
+      </c>
+      <c r="G297" s="6">
+        <v>1</v>
+      </c>
+      <c r="H297" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="5:8">
+      <c r="E298" s="20" t="s">
+        <v>319</v>
+      </c>
+      <c r="F298" s="6">
+        <v>1</v>
+      </c>
+      <c r="G298" s="6">
+        <v>1</v>
+      </c>
+      <c r="H298" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="5:8">
+      <c r="E299" s="20" t="s">
+        <v>320</v>
+      </c>
+      <c r="F299" s="6">
+        <v>1</v>
+      </c>
+      <c r="G299" s="6">
+        <v>1</v>
+      </c>
+      <c r="H299" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="5:8">
+      <c r="E300" s="20" t="s">
+        <v>321</v>
+      </c>
+      <c r="F300" s="6">
+        <v>1</v>
+      </c>
+      <c r="G300" s="6">
+        <v>1</v>
+      </c>
+      <c r="H300" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="5:8">
+      <c r="E301" s="20" t="s">
+        <v>322</v>
+      </c>
+      <c r="F301" s="6">
+        <v>1</v>
+      </c>
+      <c r="G301" s="6">
+        <v>1</v>
+      </c>
+      <c r="H301" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="5:8">
+      <c r="E302" s="20" t="s">
+        <v>323</v>
+      </c>
+      <c r="F302" s="6">
+        <v>1</v>
+      </c>
+      <c r="G302" s="6">
+        <v>1</v>
+      </c>
+      <c r="H302" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="5:8">
+      <c r="E303" s="20" t="s">
+        <v>324</v>
+      </c>
+      <c r="F303" s="6">
+        <v>1</v>
+      </c>
+      <c r="G303" s="6">
+        <v>1</v>
+      </c>
+      <c r="H303" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="5:8">
+      <c r="E304" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="F304" s="6">
+        <v>1</v>
+      </c>
+      <c r="G304" s="6">
+        <v>1</v>
+      </c>
+      <c r="H304" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="5:8">
+      <c r="E305" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="F305" s="6">
+        <v>1</v>
+      </c>
+      <c r="G305" s="6">
+        <v>1</v>
+      </c>
+      <c r="H305" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="5:8">
+      <c r="E306" s="20" t="s">
+        <v>327</v>
+      </c>
+      <c r="F306" s="6">
+        <v>1</v>
+      </c>
+      <c r="G306" s="6">
+        <v>1</v>
+      </c>
+      <c r="H306" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="5:8">
+      <c r="E307" s="20" t="s">
+        <v>328</v>
+      </c>
+      <c r="F307" s="6">
+        <v>1</v>
+      </c>
+      <c r="G307" s="6">
+        <v>1</v>
+      </c>
+      <c r="H307" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="5:8">
+      <c r="E308" s="20" t="s">
+        <v>329</v>
+      </c>
+      <c r="F308" s="6">
+        <v>1</v>
+      </c>
+      <c r="G308" s="6">
+        <v>1</v>
+      </c>
+      <c r="H308" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="5:8">
+      <c r="E309" s="20" t="s">
+        <v>330</v>
+      </c>
+      <c r="F309" s="6">
+        <v>1</v>
+      </c>
+      <c r="G309" s="6">
+        <v>1</v>
+      </c>
+      <c r="H309" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="5:8">
+      <c r="E310" s="20" t="s">
+        <v>331</v>
+      </c>
+      <c r="F310" s="6">
+        <v>1</v>
+      </c>
+      <c r="G310" s="6">
+        <v>1</v>
+      </c>
+      <c r="H310" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="5:8">
+      <c r="E311" s="20" t="s">
+        <v>332</v>
+      </c>
+      <c r="F311" s="6">
+        <v>1</v>
+      </c>
+      <c r="G311" s="6">
+        <v>1</v>
+      </c>
+      <c r="H311" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="5:8">
+      <c r="E312" s="20" t="s">
+        <v>333</v>
+      </c>
+      <c r="F312" s="6">
+        <v>1</v>
+      </c>
+      <c r="G312" s="6">
+        <v>1</v>
+      </c>
+      <c r="H312" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="5:8">
+      <c r="E313" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="F313" s="6">
+        <v>1</v>
+      </c>
+      <c r="G313" s="6">
+        <v>1</v>
+      </c>
+      <c r="H313" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="5:8">
+      <c r="E314" s="20" t="s">
+        <v>335</v>
+      </c>
+      <c r="F314" s="6">
+        <v>1</v>
+      </c>
+      <c r="G314" s="6">
+        <v>1</v>
+      </c>
+      <c r="H314" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="5:8">
+      <c r="E315" s="20" t="s">
+        <v>336</v>
+      </c>
+      <c r="F315" s="6">
+        <v>1</v>
+      </c>
+      <c r="G315" s="6">
+        <v>1</v>
+      </c>
+      <c r="H315" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="5:8">
+      <c r="E316" s="20" t="s">
+        <v>337</v>
+      </c>
+      <c r="F316" s="6">
+        <v>1</v>
+      </c>
+      <c r="G316" s="6">
+        <v>1</v>
+      </c>
+      <c r="H316" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="5:8">
+      <c r="E317" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="F317" s="6">
+        <v>1</v>
+      </c>
+      <c r="G317" s="6">
+        <v>1</v>
+      </c>
+      <c r="H317" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="5:8">
+      <c r="E318" s="20" t="s">
+        <v>339</v>
+      </c>
+      <c r="F318" s="6">
+        <v>1</v>
+      </c>
+      <c r="G318" s="6">
+        <v>1</v>
+      </c>
+      <c r="H318" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="5:8">
+      <c r="E319" s="20" t="s">
+        <v>340</v>
+      </c>
+      <c r="F319" s="6">
+        <v>1</v>
+      </c>
+      <c r="G319" s="6">
+        <v>1</v>
+      </c>
+      <c r="H319" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="5:8">
+      <c r="E320" s="20" t="s">
+        <v>341</v>
+      </c>
+      <c r="F320" s="6">
+        <v>1</v>
+      </c>
+      <c r="G320" s="6">
+        <v>1</v>
+      </c>
+      <c r="H320" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="5:8">
+      <c r="E321" s="20" t="s">
+        <v>342</v>
+      </c>
+      <c r="F321" s="6">
+        <v>1</v>
+      </c>
+      <c r="G321" s="6">
+        <v>1</v>
+      </c>
+      <c r="H321" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="5:8">
+      <c r="E322" s="20" t="s">
+        <v>343</v>
+      </c>
+      <c r="F322" s="6">
+        <v>1</v>
+      </c>
+      <c r="G322" s="6">
+        <v>1</v>
+      </c>
+      <c r="H322" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="5:8">
+      <c r="E323" s="20" t="s">
+        <v>344</v>
+      </c>
+      <c r="F323" s="6">
+        <v>1</v>
+      </c>
+      <c r="G323" s="6">
+        <v>1</v>
+      </c>
+      <c r="H323" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="5:8">
+      <c r="E324" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="F324" s="6">
+        <v>1</v>
+      </c>
+      <c r="G324" s="6">
+        <v>1</v>
+      </c>
+      <c r="H324" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="5:8">
+      <c r="E325" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="F325" s="6">
+        <v>1</v>
+      </c>
+      <c r="G325" s="6">
+        <v>1</v>
+      </c>
+      <c r="H325" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="5:8">
+      <c r="E326" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="F326" s="6">
+        <v>1</v>
+      </c>
+      <c r="G326" s="6">
+        <v>1</v>
+      </c>
+      <c r="H326" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="5:8">
+      <c r="E327" s="20" t="s">
+        <v>348</v>
+      </c>
+      <c r="F327" s="6">
+        <v>1</v>
+      </c>
+      <c r="G327" s="6">
+        <v>1</v>
+      </c>
+      <c r="H327" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="5:8">
+      <c r="E328" s="20" t="s">
+        <v>349</v>
+      </c>
+      <c r="F328" s="6">
+        <v>1</v>
+      </c>
+      <c r="G328" s="6">
+        <v>1</v>
+      </c>
+      <c r="H328" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="5:8">
+      <c r="E329" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="F329" s="6">
+        <v>1</v>
+      </c>
+      <c r="G329" s="6">
+        <v>1</v>
+      </c>
+      <c r="H329" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="5:8">
+      <c r="E330" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="F330" s="6">
+        <v>1</v>
+      </c>
+      <c r="G330" s="6">
+        <v>1</v>
+      </c>
+      <c r="H330" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="5:8">
+      <c r="E331" s="20" t="s">
+        <v>352</v>
+      </c>
+      <c r="F331" s="6">
+        <v>1</v>
+      </c>
+      <c r="G331" s="6">
+        <v>1</v>
+      </c>
+      <c r="H331" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="5:8">
+      <c r="E332" s="20" t="s">
+        <v>353</v>
+      </c>
+      <c r="F332" s="6">
+        <v>1</v>
+      </c>
+      <c r="G332" s="6">
+        <v>1</v>
+      </c>
+      <c r="H332" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="5:8">
+      <c r="E333" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="F333" s="6">
+        <v>1</v>
+      </c>
+      <c r="G333" s="6">
+        <v>1</v>
+      </c>
+      <c r="H333" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="5:8">
+      <c r="E334" s="20" t="s">
+        <v>355</v>
+      </c>
+      <c r="F334" s="6">
+        <v>1</v>
+      </c>
+      <c r="G334" s="6">
+        <v>1</v>
+      </c>
+      <c r="H334" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="5:8">
+      <c r="E335" s="20" t="s">
+        <v>356</v>
+      </c>
+      <c r="F335" s="6">
+        <v>1</v>
+      </c>
+      <c r="G335" s="6">
+        <v>1</v>
+      </c>
+      <c r="H335" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" ht="15.5" spans="2:8">
+      <c r="B336" s="3">
+        <v>1013</v>
+      </c>
+      <c r="C336" s="3">
+        <v>1</v>
+      </c>
+      <c r="D336" t="s">
+        <v>357</v>
+      </c>
+      <c r="E336" s="21" t="s">
+        <v>358</v>
+      </c>
+      <c r="F336" s="6">
+        <v>1</v>
+      </c>
+      <c r="G336" s="6">
+        <v>1</v>
+      </c>
+      <c r="H336" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" ht="15.5" spans="2:8">
+      <c r="B337" s="3">
+        <v>1014</v>
+      </c>
+      <c r="C337" s="3">
+        <v>1</v>
+      </c>
+      <c r="D337" t="s">
+        <v>357</v>
+      </c>
+      <c r="E337" s="21" t="s">
+        <v>359</v>
+      </c>
+      <c r="F337" s="6">
+        <v>1</v>
+      </c>
+      <c r="G337" s="6">
+        <v>1</v>
+      </c>
+      <c r="H337" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" ht="15.5" spans="2:8">
+      <c r="B338" s="3">
+        <v>1015</v>
+      </c>
+      <c r="C338" s="3">
+        <v>1</v>
+      </c>
+      <c r="D338" t="s">
+        <v>357</v>
+      </c>
+      <c r="E338" s="21" t="s">
+        <v>360</v>
+      </c>
+      <c r="F338" s="6">
+        <v>1</v>
+      </c>
+      <c r="G338" s="6">
+        <v>1</v>
+      </c>
+      <c r="H338" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" ht="15.5" spans="2:8">
+      <c r="B339" s="3">
+        <v>1016</v>
+      </c>
+      <c r="C339" s="3">
+        <v>1</v>
+      </c>
+      <c r="D339" t="s">
+        <v>357</v>
+      </c>
+      <c r="E339" s="21" t="s">
+        <v>361</v>
+      </c>
+      <c r="F339" s="6">
+        <v>1</v>
+      </c>
+      <c r="G339" s="6">
+        <v>1</v>
+      </c>
+      <c r="H339" s="6">
         <v>1</v>
       </c>
     </row>

--- a/Doc/ExcelConfig/Datas/dota/PoolConfig.xlsx
+++ b/Doc/ExcelConfig/Datas/dota/PoolConfig.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="334">
   <si>
     <t>##</t>
   </si>
@@ -394,34 +394,37 @@
     <t>building_hero_zuus</t>
   </si>
   <si>
-    <t>item_imba_stout_shield</t>
-  </si>
-  <si>
-    <t>item_imba_poor_mans_shield</t>
+    <t>item_imba_blades_of_attack</t>
+  </si>
+  <si>
+    <t>item_imba_quarterstaff</t>
+  </si>
+  <si>
+    <t>item_imba_ring_of_health</t>
+  </si>
+  <si>
+    <t>item_imba_void_stone</t>
+  </si>
+  <si>
+    <t>item_imba_vitality_booster</t>
+  </si>
+  <si>
+    <t>item_imba_energy_booster</t>
+  </si>
+  <si>
+    <t>item_imba_cloak</t>
+  </si>
+  <si>
+    <t>item_imba_lifesteal</t>
   </si>
   <si>
     <t>item_imba_blight_stone</t>
   </si>
   <si>
-    <t>item_imba_lifesteal</t>
-  </si>
-  <si>
-    <t>item_imba_ring_of_aquila</t>
-  </si>
-  <si>
-    <t>item_imba_circlet</t>
-  </si>
-  <si>
-    <t>item_imba_gauntlets</t>
-  </si>
-  <si>
-    <t>item_imba_mantle</t>
-  </si>
-  <si>
-    <t>item_imba_branches</t>
-  </si>
-  <si>
-    <t>item_imba_slippers</t>
+    <t>item_imba_orb_of_venom</t>
+  </si>
+  <si>
+    <t>item_imba_gloves</t>
   </si>
   <si>
     <t>item_imba_belt_of_strength</t>
@@ -436,6 +439,24 @@
     <t>item_imba_crown</t>
   </si>
   <si>
+    <t>item_imba_chainmail</t>
+  </si>
+  <si>
+    <t>item_imba_helm_of_iron_will</t>
+  </si>
+  <si>
+    <t>item_imba_boots</t>
+  </si>
+  <si>
+    <t>item_imba_voodoo_mask</t>
+  </si>
+  <si>
+    <t>item_imba_buckler</t>
+  </si>
+  <si>
+    <t>item_imba_talisman_of_evasion</t>
+  </si>
+  <si>
     <t>item_imba_ogre_axe</t>
   </si>
   <si>
@@ -445,427 +466,322 @@
     <t>item_imba_staff_of_wizardry</t>
   </si>
   <si>
-    <t>item_imba_orb_of_venom</t>
-  </si>
-  <si>
-    <t>item_imba_blades_of_attack</t>
-  </si>
-  <si>
-    <t>item_imba_gloves</t>
-  </si>
-  <si>
-    <t>item_imba_chainmail</t>
-  </si>
-  <si>
-    <t>item_imba_quarterstaff</t>
-  </si>
-  <si>
-    <t>item_imba_helm_of_iron_will</t>
-  </si>
-  <si>
-    <t>item_imba_ring_of_regen</t>
-  </si>
-  <si>
-    <t>item_imba_sobi_mask</t>
-  </si>
-  <si>
-    <t>item_imba_fluffy_hat</t>
-  </si>
-  <si>
-    <t>item_imba_wind_lace</t>
-  </si>
-  <si>
-    <t>item_imba_cloak</t>
-  </si>
-  <si>
-    <t>item_imba_boots</t>
-  </si>
-  <si>
-    <t>item_imba_voodoo_mask</t>
-  </si>
-  <si>
-    <t>item_imba_null_talisman</t>
-  </si>
-  <si>
-    <t>item_imba_wraith_band</t>
-  </si>
-  <si>
-    <t>item_imba_bracer</t>
+    <t>item_imba_platemail</t>
+  </si>
+  <si>
+    <t>item_imba_broadsword</t>
+  </si>
+  <si>
+    <t>item_imba_blitz_knuckles</t>
+  </si>
+  <si>
+    <t>item_imba_javelin</t>
+  </si>
+  <si>
+    <t>item_imba_mithril_hammer</t>
+  </si>
+  <si>
+    <t>item_imba_blink</t>
+  </si>
+  <si>
+    <t>item_imba_soul_booster</t>
+  </si>
+  <si>
+    <t>item_imba_pers</t>
+  </si>
+  <si>
+    <t>item_imba_phase_boots</t>
+  </si>
+  <si>
+    <t>item_imba_arcane_boots</t>
+  </si>
+  <si>
+    <t>item_imba_tranquil_boots</t>
+  </si>
+  <si>
+    <t>item_imba_helm_of_the_dominator</t>
+  </si>
+  <si>
+    <t>item_imba_aether_lens</t>
+  </si>
+  <si>
+    <t>item_imba_vanguard</t>
+  </si>
+  <si>
+    <t>item_imba_oblivion_staff</t>
+  </si>
+  <si>
+    <t>item_imba_power_treads</t>
+  </si>
+  <si>
+    <t>item_imba_ancient_janggo</t>
+  </si>
+  <si>
+    <t>item_imba_mekansm</t>
   </si>
   <si>
     <t>item_imba_orb_of_corrosion</t>
   </si>
   <si>
-    <t>item_imba_buckler</t>
-  </si>
-  <si>
-    <t>item_imba_ring_of_basilius</t>
-  </si>
-  <si>
-    <t>item_imba_headdress</t>
-  </si>
-  <si>
-    <t>item_imba_ring_of_health</t>
-  </si>
-  <si>
-    <t>item_imba_void_stone</t>
-  </si>
-  <si>
-    <t>item_imba_energy_booster</t>
-  </si>
-  <si>
-    <t>item_imba_vitality_booster</t>
+    <t>item_imba_hood_of_defiance</t>
+  </si>
+  <si>
+    <t>item_imba_armlet</t>
+  </si>
+  <si>
+    <t>item_imba_falcon_blade</t>
+  </si>
+  <si>
+    <t>item_imba_meteor_hammer</t>
+  </si>
+  <si>
+    <t>item_imba_medallion_of_courage</t>
+  </si>
+  <si>
+    <t>item_imba_veil_of_discord</t>
+  </si>
+  <si>
+    <t>item_imba_hyperstone</t>
+  </si>
+  <si>
+    <t>item_imba_ultimate_orb</t>
+  </si>
+  <si>
+    <t>item_imba_demon_edge</t>
+  </si>
+  <si>
+    <t>item_imba_mystic_staff</t>
+  </si>
+  <si>
+    <t>item_imba_reaver</t>
+  </si>
+  <si>
+    <t>item_imba_eagle</t>
+  </si>
+  <si>
+    <t>item_imba_relic</t>
+  </si>
+  <si>
+    <t>item_imba_lesser_crit</t>
+  </si>
+  <si>
+    <t>item_imba_bfury</t>
+  </si>
+  <si>
+    <t>item_imba_witch_blade</t>
+  </si>
+  <si>
+    <t>item_imba_dagon</t>
+  </si>
+  <si>
+    <t>item_imba_dagon_2</t>
+  </si>
+  <si>
+    <t>item_imba_dagon_3</t>
+  </si>
+  <si>
+    <t>item_imba_dagon_4</t>
+  </si>
+  <si>
+    <t>item_imba_dagon_5</t>
+  </si>
+  <si>
+    <t>item_imba_necronomicon</t>
+  </si>
+  <si>
+    <t>item_imba_necronomicon_2</t>
+  </si>
+  <si>
+    <t>item_imba_necronomicon_3</t>
+  </si>
+  <si>
+    <t>item_imba_necronomicon_4</t>
+  </si>
+  <si>
+    <t>item_imba_necronomicon_5</t>
+  </si>
+  <si>
+    <t>item_imba_meteor_hammer_2</t>
+  </si>
+  <si>
+    <t>item_imba_meteor_hammer_3</t>
+  </si>
+  <si>
+    <t>item_imba_meteor_hammer_4</t>
+  </si>
+  <si>
+    <t>item_imba_rod_of_atos</t>
+  </si>
+  <si>
+    <t>item_imba_rod_of_atos_2</t>
+  </si>
+  <si>
+    <t>item_imba_dragon_lance</t>
+  </si>
+  <si>
+    <t>item_imba_force_staff</t>
+  </si>
+  <si>
+    <t>item_imba_blade_mail</t>
+  </si>
+  <si>
+    <t>item_imba_blade_mail_2</t>
+  </si>
+  <si>
+    <t>item_imba_desolator</t>
+  </si>
+  <si>
+    <t>item_imba_desolator_2</t>
+  </si>
+  <si>
+    <t>item_imba_maelstrom</t>
+  </si>
+  <si>
+    <t>item_imba_skull_basher</t>
+  </si>
+  <si>
+    <t>item_imba_diffusal_blade</t>
+  </si>
+  <si>
+    <t>item_imba_diffusal_blade_2</t>
+  </si>
+  <si>
+    <t>item_imba_sange</t>
+  </si>
+  <si>
+    <t>item_imba_yasha</t>
+  </si>
+  <si>
+    <t>item_imba_kaya</t>
+  </si>
+  <si>
+    <t>item_imba_echo_sabre</t>
+  </si>
+  <si>
+    <t>item_imba_pipe</t>
+  </si>
+  <si>
+    <t>item_imba_guardian_greaves</t>
+  </si>
+  <si>
+    <t>item_imba_vladmir</t>
+  </si>
+  <si>
+    <t>item_imba_vladmir_2</t>
+  </si>
+  <si>
+    <t>item_imba_bloodstone</t>
+  </si>
+  <si>
+    <t>item_imba_octarine_core</t>
+  </si>
+  <si>
+    <t>item_imba_eternal_shroud</t>
   </si>
   <si>
     <t>item_imba_aeon_disk</t>
   </si>
   <si>
-    <t>item_imba_hand_of_midas</t>
-  </si>
-  <si>
-    <t>item_imba_arcane_boots</t>
-  </si>
-  <si>
-    <t>item_imba_mekansm</t>
-  </si>
-  <si>
-    <t>item_imba_vladmir</t>
-  </si>
-  <si>
-    <t>item_imba_dagon</t>
-  </si>
-  <si>
-    <t>item_imba_necronomicon</t>
-  </si>
-  <si>
-    <t>item_imba_vanguard</t>
-  </si>
-  <si>
-    <t>item_imba_javelin</t>
-  </si>
-  <si>
-    <t>item_imba_armlet</t>
-  </si>
-  <si>
-    <t>item_imba_invis_sword</t>
-  </si>
-  <si>
-    <t>item_imba_sange</t>
-  </si>
-  <si>
-    <t>item_imba_yasha</t>
-  </si>
-  <si>
-    <t>item_imba_kaya</t>
-  </si>
-  <si>
-    <t>item_imba_maelstrom</t>
-  </si>
-  <si>
-    <t>item_imba_diffusal_blade</t>
-  </si>
-  <si>
-    <t>item_imba_ancient_janggo</t>
-  </si>
-  <si>
-    <t>item_imba_veil_of_discord</t>
-  </si>
-  <si>
-    <t>item_imba_blink</t>
-  </si>
-  <si>
-    <t>item_imba_echo_sabre</t>
-  </si>
-  <si>
-    <t>item_imba_aether_lens</t>
-  </si>
-  <si>
-    <t>item_imba_mask_of_madness</t>
-  </si>
-  <si>
-    <t>item_imba_hood_of_defiance</t>
-  </si>
-  <si>
-    <t>item_imba_pipe</t>
-  </si>
-  <si>
-    <t>item_imba_blade_mail</t>
-  </si>
-  <si>
-    <t>item_imba_skull_basher</t>
-  </si>
-  <si>
-    <t>item_imba_lesser_crit</t>
-  </si>
-  <si>
-    <t>item_imba_force_staff</t>
-  </si>
-  <si>
-    <t>item_imba_power_treads</t>
-  </si>
-  <si>
-    <t>item_imba_travel_boots</t>
-  </si>
-  <si>
-    <t>item_imba_cloak_of_flames</t>
-  </si>
-  <si>
-    <t>item_imba_meteor_hammer</t>
-  </si>
-  <si>
-    <t>item_imba_spirit_vessel</t>
-  </si>
-  <si>
-    <t>item_imba_rod_of_atos</t>
-  </si>
-  <si>
-    <t>item_imba_ghost</t>
-  </si>
-  <si>
-    <t>item_imba_ogre_seal_totem</t>
-  </si>
-  <si>
-    <t>item_imba_broadsword</t>
-  </si>
-  <si>
-    <t>item_imba_blitz_knuckles</t>
-  </si>
-  <si>
-    <t>item_imba_claymore</t>
-  </si>
-  <si>
-    <t>item_imba_mithril_hammer</t>
-  </si>
-  <si>
-    <t>item_imba_falcon_blade</t>
-  </si>
-  <si>
-    <t>item_imba_oblivion_staff</t>
-  </si>
-  <si>
-    <t>item_imba_pers</t>
-  </si>
-  <si>
-    <t>item_imba_helm_of_the_dominator</t>
-  </si>
-  <si>
-    <t>item_imba_medallion_of_courage</t>
-  </si>
-  <si>
-    <t>item_imba_point_booster</t>
-  </si>
-  <si>
-    <t>item_imba_platemail</t>
-  </si>
-  <si>
-    <t>item_imba_talisman_of_evasion</t>
-  </si>
-  <si>
-    <t>item_imba_hyperstone</t>
-  </si>
-  <si>
-    <t>item_imba_ultimate_orb</t>
-  </si>
-  <si>
-    <t>item_imba_demon_edge</t>
-  </si>
-  <si>
-    <t>item_imba_mystic_staff</t>
-  </si>
-  <si>
-    <t>item_imba_guardian_greaves</t>
-  </si>
-  <si>
-    <t>item_imba_vladmir_2</t>
+    <t>item_imba_crimson_guard</t>
+  </si>
+  <si>
+    <t>item_imba_black_king_bar</t>
+  </si>
+  <si>
+    <t>item_imba_lotus_orb</t>
+  </si>
+  <si>
+    <t>item_imba_orchid</t>
+  </si>
+  <si>
+    <t>item_imba_heavens_halberd</t>
+  </si>
+  <si>
+    <t>item_imba_boots_of_bearing</t>
+  </si>
+  <si>
+    <t>item_imba_rapier</t>
+  </si>
+  <si>
+    <t>item_imba_rapier_2</t>
+  </si>
+  <si>
+    <t>item_imba_rapier_magic</t>
+  </si>
+  <si>
+    <t>item_imba_rapier_magic_2</t>
+  </si>
+  <si>
+    <t>item_imba_radiance</t>
+  </si>
+  <si>
+    <t>item_imba_monkey_king_bar</t>
+  </si>
+  <si>
+    <t>item_imba_butterfly</t>
+  </si>
+  <si>
+    <t>item_imba_greater_crit</t>
+  </si>
+  <si>
+    <t>item_imba_mjollnir</t>
+  </si>
+  <si>
+    <t>item_imba_abyssal_blade</t>
+  </si>
+  <si>
+    <t>item_imba_satanic</t>
+  </si>
+  <si>
+    <t>item_imba_assault</t>
   </si>
   <si>
     <t>item_imba_sheepstick</t>
   </si>
   <si>
-    <t>item_imba_orchid</t>
-  </si>
-  <si>
-    <t>item_imba_dagon_2</t>
-  </si>
-  <si>
-    <t>item_imba_dagon_3</t>
-  </si>
-  <si>
-    <t>item_imba_necronomicon_2</t>
-  </si>
-  <si>
-    <t>item_imba_necronomicon_3</t>
-  </si>
-  <si>
-    <t>item_imba_assault</t>
+    <t>item_imba_moon_shard</t>
+  </si>
+  <si>
+    <t>item_imba_skadi</t>
+  </si>
+  <si>
+    <t>item_imba_manta</t>
+  </si>
+  <si>
+    <t>item_imba_manta_2</t>
+  </si>
+  <si>
+    <t>item_imba_shivas_guard</t>
+  </si>
+  <si>
+    <t>item_imba_bloodthorn</t>
   </si>
   <si>
     <t>item_imba_heart</t>
   </si>
   <si>
-    <t>item_imba_shivas_guard</t>
-  </si>
-  <si>
-    <t>item_imba_crimson_guard</t>
-  </si>
-  <si>
-    <t>item_imba_monkey_king_bar</t>
-  </si>
-  <si>
-    <t>item_imba_radiance</t>
-  </si>
-  <si>
-    <t>item_imba_butterfly</t>
-  </si>
-  <si>
-    <t>item_imba_greater_crit</t>
-  </si>
-  <si>
-    <t>item_imba_silver_edge</t>
+    <t>item_imba_hurricane_pike</t>
+  </si>
+  <si>
+    <t>item_imba_kaya_and_sange</t>
+  </si>
+  <si>
+    <t>item_imba_yasha_and_kaya</t>
   </si>
   <si>
     <t>item_imba_sange_and_yasha</t>
   </si>
   <si>
-    <t>item_imba_skadi</t>
-  </si>
-  <si>
-    <t>item_imba_mjollnir</t>
-  </si>
-  <si>
-    <t>item_imba_desolator</t>
-  </si>
-  <si>
-    <t>item_imba_diffusal_blade_2</t>
-  </si>
-  <si>
-    <t>item_imba_heavens_halberd</t>
-  </si>
-  <si>
-    <t>item_imba_moon_shard</t>
-  </si>
-  <si>
-    <t>item_imba_octarine_core</t>
-  </si>
-  <si>
-    <t>item_imba_phase_boots</t>
-  </si>
-  <si>
-    <t>item_imba_satanic</t>
-  </si>
-  <si>
-    <t>item_imba_urn_of_shadows</t>
-  </si>
-  <si>
-    <t>item_imba_manta</t>
-  </si>
-  <si>
-    <t>item_imba_hurricane_pike</t>
-  </si>
-  <si>
-    <t>item_imba_kaya_and_sange</t>
-  </si>
-  <si>
-    <t>item_imba_yasha_and_kaya</t>
-  </si>
-  <si>
-    <t>item_imba_bloodstone</t>
-  </si>
-  <si>
-    <t>item_imba_meteor_hammer_2</t>
-  </si>
-  <si>
-    <t>item_imba_meteor_hammer_3</t>
-  </si>
-  <si>
-    <t>item_imba_ethereal_blade</t>
-  </si>
-  <si>
-    <t>item_imba_eternal_shroud</t>
+    <t>item_imba_triumvirate</t>
+  </si>
+  <si>
+    <t>item_imba_triumvirate_v2</t>
   </si>
   <si>
     <t>item_imba_nullifier</t>
   </si>
   <si>
-    <t>item_imba_cyclone</t>
-  </si>
-  <si>
-    <t>item_imba_cultic_hammer</t>
-  </si>
-  <si>
-    <t>item_imba_black_king_bar</t>
-  </si>
-  <si>
-    <t>item_imba_lotus_orb</t>
-  </si>
-  <si>
-    <t>item_imba_reaver</t>
-  </si>
-  <si>
-    <t>item_imba_eagle</t>
-  </si>
-  <si>
-    <t>item_imba_relic</t>
-  </si>
-  <si>
-    <t>item_imba_bloodthorn</t>
-  </si>
-  <si>
-    <t>item_imba_dagon_4</t>
-  </si>
-  <si>
-    <t>item_imba_dagon_5</t>
-  </si>
-  <si>
-    <t>item_imba_necronomicon_4</t>
-  </si>
-  <si>
-    <t>item_imba_necronomicon_5</t>
-  </si>
-  <si>
-    <t>item_imba_desolator_2</t>
-  </si>
-  <si>
-    <t>item_imba_rapier</t>
-  </si>
-  <si>
-    <t>item_imba_rapier_2</t>
-  </si>
-  <si>
-    <t>item_imba_rapier_magic</t>
-  </si>
-  <si>
-    <t>item_imba_rapier_magic_2</t>
-  </si>
-  <si>
-    <t>item_imba_blade_mail_2</t>
-  </si>
-  <si>
-    <t>item_imba_abyssal_blade</t>
-  </si>
-  <si>
-    <t>item_imba_meteor_hammer_4</t>
-  </si>
-  <si>
-    <t>item_imba_rod_of_atos_2</t>
-  </si>
-  <si>
-    <t>item_imba_triumvirate</t>
-  </si>
-  <si>
-    <t>item_imba_triumvirate_v2</t>
-  </si>
-  <si>
-    <t>item_imba_dragon_lance</t>
-  </si>
-  <si>
     <t>item_imba_nullifier_2</t>
-  </si>
-  <si>
-    <t>item_imba_cyclone_2</t>
-  </si>
-  <si>
-    <t>item_imba_manta_2</t>
   </si>
   <si>
     <t>sect_invent_a</t>
@@ -1289,7 +1205,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1305,6 +1221,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1601,10 +1535,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1613,7 +1547,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1622,7 +1556,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1634,10 +1568,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1658,28 +1592,28 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1691,37 +1625,28 @@
     <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1730,7 +1655,7 @@
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1742,8 +1667,17 @@
     <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="31" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1787,17 +1721,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2117,14 +2053,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H339"/>
+  <dimension ref="A1:H312"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="3" topLeftCell="I325" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="3" topLeftCell="I204" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B336" sqref="B336"/>
+      <selection pane="bottomRight" activeCell="F235" sqref="F213:H235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
@@ -4311,11 +4247,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" ht="15.5" spans="4:8">
+    <row r="126" ht="15.5" spans="2:8">
+      <c r="B126" s="3">
+        <v>1006</v>
+      </c>
+      <c r="C126" s="3">
+        <v>1</v>
+      </c>
       <c r="D126" t="s">
-        <v>20</v>
-      </c>
-      <c r="E126" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E126" s="18" t="s">
         <v>145</v>
       </c>
       <c r="F126" s="6">
@@ -4330,9 +4272,9 @@
     </row>
     <row r="127" ht="15.5" spans="4:8">
       <c r="D127" t="s">
-        <v>20</v>
-      </c>
-      <c r="E127" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E127" s="18" t="s">
         <v>146</v>
       </c>
       <c r="F127" s="6">
@@ -4347,9 +4289,9 @@
     </row>
     <row r="128" ht="15.5" spans="4:8">
       <c r="D128" t="s">
-        <v>20</v>
-      </c>
-      <c r="E128" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E128" s="18" t="s">
         <v>147</v>
       </c>
       <c r="F128" s="6">
@@ -4364,9 +4306,9 @@
     </row>
     <row r="129" ht="15.5" spans="4:8">
       <c r="D129" t="s">
-        <v>20</v>
-      </c>
-      <c r="E129" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E129" s="18" t="s">
         <v>148</v>
       </c>
       <c r="F129" s="6">
@@ -4381,9 +4323,9 @@
     </row>
     <row r="130" ht="15.5" spans="4:8">
       <c r="D130" t="s">
-        <v>20</v>
-      </c>
-      <c r="E130" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E130" s="18" t="s">
         <v>149</v>
       </c>
       <c r="F130" s="6">
@@ -4398,9 +4340,9 @@
     </row>
     <row r="131" ht="15.5" spans="4:8">
       <c r="D131" t="s">
-        <v>20</v>
-      </c>
-      <c r="E131" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E131" s="18" t="s">
         <v>150</v>
       </c>
       <c r="F131" s="6">
@@ -4415,9 +4357,9 @@
     </row>
     <row r="132" ht="15.5" spans="4:8">
       <c r="D132" t="s">
-        <v>20</v>
-      </c>
-      <c r="E132" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E132" s="18" t="s">
         <v>151</v>
       </c>
       <c r="F132" s="6">
@@ -4432,9 +4374,9 @@
     </row>
     <row r="133" ht="15.5" spans="4:8">
       <c r="D133" t="s">
-        <v>20</v>
-      </c>
-      <c r="E133" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E133" s="18" t="s">
         <v>152</v>
       </c>
       <c r="F133" s="6">
@@ -4449,9 +4391,9 @@
     </row>
     <row r="134" ht="15.5" spans="4:8">
       <c r="D134" t="s">
-        <v>20</v>
-      </c>
-      <c r="E134" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E134" s="18" t="s">
         <v>153</v>
       </c>
       <c r="F134" s="6">
@@ -4466,9 +4408,9 @@
     </row>
     <row r="135" ht="15.5" spans="4:8">
       <c r="D135" t="s">
-        <v>20</v>
-      </c>
-      <c r="E135" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E135" s="18" t="s">
         <v>154</v>
       </c>
       <c r="F135" s="6">
@@ -4483,9 +4425,9 @@
     </row>
     <row r="136" ht="15.5" spans="4:8">
       <c r="D136" t="s">
-        <v>20</v>
-      </c>
-      <c r="E136" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E136" s="19" t="s">
         <v>155</v>
       </c>
       <c r="F136" s="6">
@@ -4500,9 +4442,9 @@
     </row>
     <row r="137" ht="15.5" spans="4:8">
       <c r="D137" t="s">
-        <v>20</v>
-      </c>
-      <c r="E137" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E137" s="18" t="s">
         <v>156</v>
       </c>
       <c r="F137" s="6">
@@ -4517,9 +4459,9 @@
     </row>
     <row r="138" ht="15.5" spans="4:8">
       <c r="D138" t="s">
-        <v>20</v>
-      </c>
-      <c r="E138" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E138" s="18" t="s">
         <v>157</v>
       </c>
       <c r="F138" s="6">
@@ -4534,9 +4476,9 @@
     </row>
     <row r="139" ht="15.5" spans="4:8">
       <c r="D139" t="s">
-        <v>20</v>
-      </c>
-      <c r="E139" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E139" s="18" t="s">
         <v>158</v>
       </c>
       <c r="F139" s="6">
@@ -4551,9 +4493,9 @@
     </row>
     <row r="140" ht="15.5" spans="4:8">
       <c r="D140" t="s">
-        <v>20</v>
-      </c>
-      <c r="E140" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E140" s="19" t="s">
         <v>159</v>
       </c>
       <c r="F140" s="6">
@@ -4568,9 +4510,9 @@
     </row>
     <row r="141" ht="15.5" spans="4:8">
       <c r="D141" t="s">
-        <v>20</v>
-      </c>
-      <c r="E141" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E141" s="18" t="s">
         <v>160</v>
       </c>
       <c r="F141" s="6">
@@ -4585,9 +4527,9 @@
     </row>
     <row r="142" ht="15.5" spans="4:8">
       <c r="D142" t="s">
-        <v>20</v>
-      </c>
-      <c r="E142" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E142" s="18" t="s">
         <v>161</v>
       </c>
       <c r="F142" s="6">
@@ -4602,9 +4544,9 @@
     </row>
     <row r="143" ht="15.5" spans="4:8">
       <c r="D143" t="s">
-        <v>20</v>
-      </c>
-      <c r="E143" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E143" s="18" t="s">
         <v>162</v>
       </c>
       <c r="F143" s="6">
@@ -4619,9 +4561,9 @@
     </row>
     <row r="144" ht="15.5" spans="4:8">
       <c r="D144" t="s">
-        <v>20</v>
-      </c>
-      <c r="E144" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E144" s="18" t="s">
         <v>163</v>
       </c>
       <c r="F144" s="6">
@@ -4636,9 +4578,9 @@
     </row>
     <row r="145" ht="15.5" spans="4:8">
       <c r="D145" t="s">
-        <v>20</v>
-      </c>
-      <c r="E145" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E145" s="20" t="s">
         <v>164</v>
       </c>
       <c r="F145" s="6">
@@ -4653,9 +4595,9 @@
     </row>
     <row r="146" ht="15.5" spans="4:8">
       <c r="D146" t="s">
-        <v>20</v>
-      </c>
-      <c r="E146" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E146" s="18" t="s">
         <v>165</v>
       </c>
       <c r="F146" s="6">
@@ -4668,17 +4610,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" ht="15.5" spans="2:8">
-      <c r="B147" s="3">
-        <v>1006</v>
-      </c>
-      <c r="C147" s="3">
-        <v>1</v>
-      </c>
+    <row r="147" ht="15.5" spans="4:8">
       <c r="D147" t="s">
         <v>38</v>
       </c>
-      <c r="E147" s="17" t="s">
+      <c r="E147" s="18" t="s">
         <v>166</v>
       </c>
       <c r="F147" s="6">
@@ -4695,7 +4631,7 @@
       <c r="D148" t="s">
         <v>38</v>
       </c>
-      <c r="E148" s="17" t="s">
+      <c r="E148" s="18" t="s">
         <v>167</v>
       </c>
       <c r="F148" s="6">
@@ -4712,7 +4648,7 @@
       <c r="D149" t="s">
         <v>38</v>
       </c>
-      <c r="E149" s="17" t="s">
+      <c r="E149" s="18" t="s">
         <v>168</v>
       </c>
       <c r="F149" s="6">
@@ -4729,7 +4665,7 @@
       <c r="D150" t="s">
         <v>38</v>
       </c>
-      <c r="E150" s="17" t="s">
+      <c r="E150" s="18" t="s">
         <v>169</v>
       </c>
       <c r="F150" s="6">
@@ -4746,7 +4682,7 @@
       <c r="D151" t="s">
         <v>38</v>
       </c>
-      <c r="E151" s="17" t="s">
+      <c r="E151" s="18" t="s">
         <v>170</v>
       </c>
       <c r="F151" s="6">
@@ -4763,7 +4699,7 @@
       <c r="D152" t="s">
         <v>38</v>
       </c>
-      <c r="E152" s="17" t="s">
+      <c r="E152" s="18" t="s">
         <v>171</v>
       </c>
       <c r="F152" s="6">
@@ -4780,7 +4716,7 @@
       <c r="D153" t="s">
         <v>38</v>
       </c>
-      <c r="E153" s="17" t="s">
+      <c r="E153" s="18" t="s">
         <v>172</v>
       </c>
       <c r="F153" s="6">
@@ -4797,7 +4733,7 @@
       <c r="D154" t="s">
         <v>38</v>
       </c>
-      <c r="E154" s="17" t="s">
+      <c r="E154" s="18" t="s">
         <v>173</v>
       </c>
       <c r="F154" s="6">
@@ -4810,11 +4746,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" ht="15.5" spans="4:8">
+    <row r="155" ht="15.5" spans="2:8">
+      <c r="B155" s="3">
+        <v>1007</v>
+      </c>
+      <c r="C155" s="3">
+        <v>1</v>
+      </c>
       <c r="D155" t="s">
-        <v>38</v>
-      </c>
-      <c r="E155" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E155" s="21" t="s">
         <v>174</v>
       </c>
       <c r="F155" s="6">
@@ -4829,9 +4771,9 @@
     </row>
     <row r="156" ht="15.5" spans="4:8">
       <c r="D156" t="s">
-        <v>38</v>
-      </c>
-      <c r="E156" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E156" s="21" t="s">
         <v>175</v>
       </c>
       <c r="F156" s="6">
@@ -4846,9 +4788,9 @@
     </row>
     <row r="157" ht="15.5" spans="4:8">
       <c r="D157" t="s">
-        <v>38</v>
-      </c>
-      <c r="E157" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E157" s="21" t="s">
         <v>176</v>
       </c>
       <c r="F157" s="6">
@@ -4863,9 +4805,9 @@
     </row>
     <row r="158" ht="15.5" spans="4:8">
       <c r="D158" t="s">
-        <v>38</v>
-      </c>
-      <c r="E158" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E158" s="21" t="s">
         <v>177</v>
       </c>
       <c r="F158" s="6">
@@ -4880,9 +4822,9 @@
     </row>
     <row r="159" ht="15.5" spans="4:8">
       <c r="D159" t="s">
-        <v>38</v>
-      </c>
-      <c r="E159" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E159" s="21" t="s">
         <v>178</v>
       </c>
       <c r="F159" s="6">
@@ -4897,9 +4839,9 @@
     </row>
     <row r="160" ht="15.5" spans="4:8">
       <c r="D160" t="s">
-        <v>38</v>
-      </c>
-      <c r="E160" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E160" s="21" t="s">
         <v>179</v>
       </c>
       <c r="F160" s="6">
@@ -4914,9 +4856,9 @@
     </row>
     <row r="161" ht="15.5" spans="4:8">
       <c r="D161" t="s">
-        <v>38</v>
-      </c>
-      <c r="E161" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E161" s="21" t="s">
         <v>180</v>
       </c>
       <c r="F161" s="6">
@@ -4931,9 +4873,9 @@
     </row>
     <row r="162" ht="15.5" spans="4:8">
       <c r="D162" t="s">
-        <v>38</v>
-      </c>
-      <c r="E162" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E162" s="21" t="s">
         <v>181</v>
       </c>
       <c r="F162" s="6">
@@ -4948,9 +4890,9 @@
     </row>
     <row r="163" ht="15.5" spans="4:8">
       <c r="D163" t="s">
-        <v>38</v>
-      </c>
-      <c r="E163" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E163" s="21" t="s">
         <v>182</v>
       </c>
       <c r="F163" s="6">
@@ -4965,9 +4907,9 @@
     </row>
     <row r="164" ht="15.5" spans="4:8">
       <c r="D164" t="s">
-        <v>38</v>
-      </c>
-      <c r="E164" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E164" s="21" t="s">
         <v>183</v>
       </c>
       <c r="F164" s="6">
@@ -4982,9 +4924,9 @@
     </row>
     <row r="165" ht="15.5" spans="4:8">
       <c r="D165" t="s">
-        <v>38</v>
-      </c>
-      <c r="E165" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E165" s="21" t="s">
         <v>184</v>
       </c>
       <c r="F165" s="6">
@@ -4999,9 +4941,9 @@
     </row>
     <row r="166" ht="15.5" spans="4:8">
       <c r="D166" t="s">
-        <v>38</v>
-      </c>
-      <c r="E166" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E166" s="21" t="s">
         <v>185</v>
       </c>
       <c r="F166" s="6">
@@ -5016,9 +4958,9 @@
     </row>
     <row r="167" ht="15.5" spans="4:8">
       <c r="D167" t="s">
-        <v>38</v>
-      </c>
-      <c r="E167" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E167" s="21" t="s">
         <v>186</v>
       </c>
       <c r="F167" s="6">
@@ -5033,9 +4975,9 @@
     </row>
     <row r="168" ht="15.5" spans="4:8">
       <c r="D168" t="s">
-        <v>38</v>
-      </c>
-      <c r="E168" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E168" s="21" t="s">
         <v>187</v>
       </c>
       <c r="F168" s="6">
@@ -5050,9 +4992,9 @@
     </row>
     <row r="169" ht="15.5" spans="4:8">
       <c r="D169" t="s">
-        <v>38</v>
-      </c>
-      <c r="E169" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E169" s="21" t="s">
         <v>188</v>
       </c>
       <c r="F169" s="6">
@@ -5067,9 +5009,9 @@
     </row>
     <row r="170" ht="15.5" spans="4:8">
       <c r="D170" t="s">
-        <v>38</v>
-      </c>
-      <c r="E170" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E170" s="21" t="s">
         <v>189</v>
       </c>
       <c r="F170" s="6">
@@ -5084,9 +5026,9 @@
     </row>
     <row r="171" ht="15.5" spans="4:8">
       <c r="D171" t="s">
-        <v>38</v>
-      </c>
-      <c r="E171" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E171" s="21" t="s">
         <v>190</v>
       </c>
       <c r="F171" s="6">
@@ -5101,9 +5043,9 @@
     </row>
     <row r="172" ht="15.5" spans="4:8">
       <c r="D172" t="s">
-        <v>38</v>
-      </c>
-      <c r="E172" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E172" s="21" t="s">
         <v>191</v>
       </c>
       <c r="F172" s="6">
@@ -5118,9 +5060,9 @@
     </row>
     <row r="173" ht="15.5" spans="4:8">
       <c r="D173" t="s">
-        <v>38</v>
-      </c>
-      <c r="E173" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E173" s="21" t="s">
         <v>192</v>
       </c>
       <c r="F173" s="6">
@@ -5135,9 +5077,9 @@
     </row>
     <row r="174" ht="15.5" spans="4:8">
       <c r="D174" t="s">
-        <v>38</v>
-      </c>
-      <c r="E174" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E174" s="21" t="s">
         <v>193</v>
       </c>
       <c r="F174" s="6">
@@ -5152,10 +5094,10 @@
     </row>
     <row r="175" ht="15.5" spans="4:8">
       <c r="D175" t="s">
-        <v>38</v>
-      </c>
-      <c r="E175" s="17" t="s">
-        <v>194</v>
+        <v>64</v>
+      </c>
+      <c r="E175" s="21" t="s">
+        <v>171</v>
       </c>
       <c r="F175" s="6">
         <v>1</v>
@@ -5169,10 +5111,10 @@
     </row>
     <row r="176" ht="15.5" spans="4:8">
       <c r="D176" t="s">
-        <v>38</v>
-      </c>
-      <c r="E176" s="17" t="s">
-        <v>195</v>
+        <v>64</v>
+      </c>
+      <c r="E176" s="21" t="s">
+        <v>194</v>
       </c>
       <c r="F176" s="6">
         <v>1</v>
@@ -5186,10 +5128,10 @@
     </row>
     <row r="177" ht="15.5" spans="4:8">
       <c r="D177" t="s">
-        <v>38</v>
-      </c>
-      <c r="E177" s="17" t="s">
-        <v>196</v>
+        <v>64</v>
+      </c>
+      <c r="E177" s="21" t="s">
+        <v>195</v>
       </c>
       <c r="F177" s="6">
         <v>1</v>
@@ -5203,10 +5145,10 @@
     </row>
     <row r="178" ht="15.5" spans="4:8">
       <c r="D178" t="s">
-        <v>38</v>
-      </c>
-      <c r="E178" s="17" t="s">
-        <v>197</v>
+        <v>64</v>
+      </c>
+      <c r="E178" s="21" t="s">
+        <v>196</v>
       </c>
       <c r="F178" s="6">
         <v>1</v>
@@ -5220,10 +5162,10 @@
     </row>
     <row r="179" ht="15.5" spans="4:8">
       <c r="D179" t="s">
-        <v>38</v>
-      </c>
-      <c r="E179" s="17" t="s">
-        <v>198</v>
+        <v>64</v>
+      </c>
+      <c r="E179" s="21" t="s">
+        <v>197</v>
       </c>
       <c r="F179" s="6">
         <v>1</v>
@@ -5237,10 +5179,10 @@
     </row>
     <row r="180" ht="15.5" spans="4:8">
       <c r="D180" t="s">
-        <v>38</v>
-      </c>
-      <c r="E180" s="17" t="s">
-        <v>199</v>
+        <v>64</v>
+      </c>
+      <c r="E180" s="21" t="s">
+        <v>198</v>
       </c>
       <c r="F180" s="6">
         <v>1</v>
@@ -5254,10 +5196,10 @@
     </row>
     <row r="181" ht="15.5" spans="4:8">
       <c r="D181" t="s">
-        <v>38</v>
-      </c>
-      <c r="E181" s="17" t="s">
-        <v>200</v>
+        <v>64</v>
+      </c>
+      <c r="E181" s="21" t="s">
+        <v>199</v>
       </c>
       <c r="F181" s="6">
         <v>1</v>
@@ -5271,10 +5213,10 @@
     </row>
     <row r="182" ht="15.5" spans="4:8">
       <c r="D182" t="s">
-        <v>38</v>
-      </c>
-      <c r="E182" s="17" t="s">
-        <v>201</v>
+        <v>64</v>
+      </c>
+      <c r="E182" s="21" t="s">
+        <v>200</v>
       </c>
       <c r="F182" s="6">
         <v>1</v>
@@ -5288,10 +5230,10 @@
     </row>
     <row r="183" ht="15.5" spans="4:8">
       <c r="D183" t="s">
-        <v>38</v>
-      </c>
-      <c r="E183" s="17" t="s">
-        <v>202</v>
+        <v>64</v>
+      </c>
+      <c r="E183" s="21" t="s">
+        <v>201</v>
       </c>
       <c r="F183" s="6">
         <v>1</v>
@@ -5305,10 +5247,10 @@
     </row>
     <row r="184" ht="15.5" spans="4:8">
       <c r="D184" t="s">
-        <v>38</v>
-      </c>
-      <c r="E184" s="17" t="s">
-        <v>203</v>
+        <v>64</v>
+      </c>
+      <c r="E184" s="21" t="s">
+        <v>202</v>
       </c>
       <c r="F184" s="6">
         <v>1</v>
@@ -5322,10 +5264,10 @@
     </row>
     <row r="185" ht="15.5" spans="4:8">
       <c r="D185" t="s">
-        <v>38</v>
-      </c>
-      <c r="E185" s="17" t="s">
-        <v>204</v>
+        <v>64</v>
+      </c>
+      <c r="E185" s="21" t="s">
+        <v>203</v>
       </c>
       <c r="F185" s="6">
         <v>1</v>
@@ -5339,10 +5281,10 @@
     </row>
     <row r="186" ht="15.5" spans="4:8">
       <c r="D186" t="s">
-        <v>38</v>
-      </c>
-      <c r="E186" s="17" t="s">
-        <v>205</v>
+        <v>64</v>
+      </c>
+      <c r="E186" s="21" t="s">
+        <v>204</v>
       </c>
       <c r="F186" s="6">
         <v>1</v>
@@ -5356,10 +5298,10 @@
     </row>
     <row r="187" ht="15.5" spans="4:8">
       <c r="D187" t="s">
-        <v>38</v>
-      </c>
-      <c r="E187" s="17" t="s">
-        <v>206</v>
+        <v>64</v>
+      </c>
+      <c r="E187" s="21" t="s">
+        <v>205</v>
       </c>
       <c r="F187" s="6">
         <v>1</v>
@@ -5373,10 +5315,10 @@
     </row>
     <row r="188" ht="15.5" spans="4:8">
       <c r="D188" t="s">
-        <v>38</v>
-      </c>
-      <c r="E188" s="17" t="s">
-        <v>207</v>
+        <v>64</v>
+      </c>
+      <c r="E188" s="21" t="s">
+        <v>206</v>
       </c>
       <c r="F188" s="6">
         <v>1</v>
@@ -5390,10 +5332,10 @@
     </row>
     <row r="189" ht="15.5" spans="4:8">
       <c r="D189" t="s">
-        <v>38</v>
-      </c>
-      <c r="E189" s="17" t="s">
-        <v>208</v>
+        <v>64</v>
+      </c>
+      <c r="E189" s="21" t="s">
+        <v>207</v>
       </c>
       <c r="F189" s="6">
         <v>1</v>
@@ -5407,10 +5349,10 @@
     </row>
     <row r="190" ht="15.5" spans="4:8">
       <c r="D190" t="s">
-        <v>38</v>
-      </c>
-      <c r="E190" s="17" t="s">
-        <v>209</v>
+        <v>64</v>
+      </c>
+      <c r="E190" s="21" t="s">
+        <v>208</v>
       </c>
       <c r="F190" s="6">
         <v>1</v>
@@ -5424,10 +5366,10 @@
     </row>
     <row r="191" ht="15.5" spans="4:8">
       <c r="D191" t="s">
-        <v>38</v>
-      </c>
-      <c r="E191" s="17" t="s">
-        <v>210</v>
+        <v>64</v>
+      </c>
+      <c r="E191" s="21" t="s">
+        <v>209</v>
       </c>
       <c r="F191" s="6">
         <v>1</v>
@@ -5441,10 +5383,10 @@
     </row>
     <row r="192" ht="15.5" spans="4:8">
       <c r="D192" t="s">
-        <v>38</v>
-      </c>
-      <c r="E192" s="17" t="s">
-        <v>211</v>
+        <v>64</v>
+      </c>
+      <c r="E192" s="21" t="s">
+        <v>210</v>
       </c>
       <c r="F192" s="6">
         <v>1</v>
@@ -5458,10 +5400,10 @@
     </row>
     <row r="193" ht="15.5" spans="4:8">
       <c r="D193" t="s">
-        <v>38</v>
-      </c>
-      <c r="E193" s="17" t="s">
-        <v>212</v>
+        <v>64</v>
+      </c>
+      <c r="E193" s="21" t="s">
+        <v>211</v>
       </c>
       <c r="F193" s="6">
         <v>1</v>
@@ -5475,10 +5417,10 @@
     </row>
     <row r="194" ht="15.5" spans="4:8">
       <c r="D194" t="s">
-        <v>38</v>
-      </c>
-      <c r="E194" s="17" t="s">
-        <v>213</v>
+        <v>64</v>
+      </c>
+      <c r="E194" s="21" t="s">
+        <v>212</v>
       </c>
       <c r="F194" s="6">
         <v>1</v>
@@ -5492,10 +5434,10 @@
     </row>
     <row r="195" ht="15.5" spans="4:8">
       <c r="D195" t="s">
-        <v>38</v>
-      </c>
-      <c r="E195" s="17" t="s">
-        <v>214</v>
+        <v>64</v>
+      </c>
+      <c r="E195" s="21" t="s">
+        <v>213</v>
       </c>
       <c r="F195" s="6">
         <v>1</v>
@@ -5509,10 +5451,10 @@
     </row>
     <row r="196" ht="15.5" spans="4:8">
       <c r="D196" t="s">
-        <v>38</v>
-      </c>
-      <c r="E196" s="17" t="s">
-        <v>215</v>
+        <v>64</v>
+      </c>
+      <c r="E196" s="21" t="s">
+        <v>214</v>
       </c>
       <c r="F196" s="6">
         <v>1</v>
@@ -5526,10 +5468,10 @@
     </row>
     <row r="197" ht="15.5" spans="4:8">
       <c r="D197" t="s">
-        <v>38</v>
-      </c>
-      <c r="E197" s="17" t="s">
-        <v>216</v>
+        <v>64</v>
+      </c>
+      <c r="E197" s="21" t="s">
+        <v>215</v>
       </c>
       <c r="F197" s="6">
         <v>1</v>
@@ -5543,33 +5485,27 @@
     </row>
     <row r="198" ht="15.5" spans="4:8">
       <c r="D198" t="s">
-        <v>38</v>
-      </c>
-      <c r="E198" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E198" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="F198" s="6">
+        <v>1</v>
+      </c>
+      <c r="G198" s="6">
+        <v>1</v>
+      </c>
+      <c r="H198" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" ht="15.5" spans="4:8">
+      <c r="D199" t="s">
+        <v>64</v>
+      </c>
+      <c r="E199" s="21" t="s">
         <v>217</v>
-      </c>
-      <c r="F198" s="6">
-        <v>1</v>
-      </c>
-      <c r="G198" s="6">
-        <v>1</v>
-      </c>
-      <c r="H198" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199" ht="15.5" spans="2:8">
-      <c r="B199" s="3">
-        <v>1007</v>
-      </c>
-      <c r="C199" s="3">
-        <v>1</v>
-      </c>
-      <c r="D199" t="s">
-        <v>64</v>
-      </c>
-      <c r="E199" s="17" t="s">
-        <v>218</v>
       </c>
       <c r="F199" s="6">
         <v>1</v>
@@ -5585,8 +5521,8 @@
       <c r="D200" t="s">
         <v>64</v>
       </c>
-      <c r="E200" s="17" t="s">
-        <v>219</v>
+      <c r="E200" s="21" t="s">
+        <v>218</v>
       </c>
       <c r="F200" s="6">
         <v>1</v>
@@ -5602,8 +5538,8 @@
       <c r="D201" t="s">
         <v>64</v>
       </c>
-      <c r="E201" s="17" t="s">
-        <v>220</v>
+      <c r="E201" s="21" t="s">
+        <v>219</v>
       </c>
       <c r="F201" s="6">
         <v>1</v>
@@ -5619,8 +5555,8 @@
       <c r="D202" t="s">
         <v>64</v>
       </c>
-      <c r="E202" s="17" t="s">
-        <v>221</v>
+      <c r="E202" s="21" t="s">
+        <v>220</v>
       </c>
       <c r="F202" s="6">
         <v>1</v>
@@ -5636,8 +5572,8 @@
       <c r="D203" t="s">
         <v>64</v>
       </c>
-      <c r="E203" s="17" t="s">
-        <v>222</v>
+      <c r="E203" s="21" t="s">
+        <v>221</v>
       </c>
       <c r="F203" s="6">
         <v>1</v>
@@ -5653,8 +5589,8 @@
       <c r="D204" t="s">
         <v>64</v>
       </c>
-      <c r="E204" s="17" t="s">
-        <v>223</v>
+      <c r="E204" s="21" t="s">
+        <v>222</v>
       </c>
       <c r="F204" s="6">
         <v>1</v>
@@ -5670,8 +5606,8 @@
       <c r="D205" t="s">
         <v>64</v>
       </c>
-      <c r="E205" s="17" t="s">
-        <v>224</v>
+      <c r="E205" s="21" t="s">
+        <v>223</v>
       </c>
       <c r="F205" s="6">
         <v>1</v>
@@ -5687,8 +5623,8 @@
       <c r="D206" t="s">
         <v>64</v>
       </c>
-      <c r="E206" s="17" t="s">
-        <v>225</v>
+      <c r="E206" s="21" t="s">
+        <v>224</v>
       </c>
       <c r="F206" s="6">
         <v>1</v>
@@ -5704,8 +5640,8 @@
       <c r="D207" t="s">
         <v>64</v>
       </c>
-      <c r="E207" s="17" t="s">
-        <v>226</v>
+      <c r="E207" s="21" t="s">
+        <v>225</v>
       </c>
       <c r="F207" s="6">
         <v>1</v>
@@ -5721,25 +5657,31 @@
       <c r="D208" t="s">
         <v>64</v>
       </c>
-      <c r="E208" s="17" t="s">
+      <c r="E208" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="F208" s="6">
+        <v>1</v>
+      </c>
+      <c r="G208" s="6">
+        <v>1</v>
+      </c>
+      <c r="H208" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" ht="15.5" spans="2:8">
+      <c r="B209" s="3">
+        <v>1008</v>
+      </c>
+      <c r="C209" s="3">
+        <v>1</v>
+      </c>
+      <c r="D209" t="s">
+        <v>102</v>
+      </c>
+      <c r="E209" s="23" t="s">
         <v>227</v>
-      </c>
-      <c r="F208" s="6">
-        <v>1</v>
-      </c>
-      <c r="G208" s="6">
-        <v>1</v>
-      </c>
-      <c r="H208" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="209" ht="15.5" spans="4:8">
-      <c r="D209" t="s">
-        <v>64</v>
-      </c>
-      <c r="E209" s="17" t="s">
-        <v>228</v>
       </c>
       <c r="F209" s="6">
         <v>1</v>
@@ -5753,10 +5695,10 @@
     </row>
     <row r="210" ht="15.5" spans="4:8">
       <c r="D210" t="s">
-        <v>64</v>
-      </c>
-      <c r="E210" s="17" t="s">
-        <v>229</v>
+        <v>102</v>
+      </c>
+      <c r="E210" s="23" t="s">
+        <v>228</v>
       </c>
       <c r="F210" s="6">
         <v>1</v>
@@ -5770,10 +5712,10 @@
     </row>
     <row r="211" ht="15.5" spans="4:8">
       <c r="D211" t="s">
-        <v>64</v>
-      </c>
-      <c r="E211" s="17" t="s">
-        <v>230</v>
+        <v>102</v>
+      </c>
+      <c r="E211" s="23" t="s">
+        <v>229</v>
       </c>
       <c r="F211" s="6">
         <v>1</v>
@@ -5787,10 +5729,10 @@
     </row>
     <row r="212" ht="15.5" spans="4:8">
       <c r="D212" t="s">
-        <v>64</v>
-      </c>
-      <c r="E212" s="17" t="s">
-        <v>231</v>
+        <v>102</v>
+      </c>
+      <c r="E212" s="23" t="s">
+        <v>230</v>
       </c>
       <c r="F212" s="6">
         <v>1</v>
@@ -5804,10 +5746,10 @@
     </row>
     <row r="213" ht="15.5" spans="4:8">
       <c r="D213" t="s">
-        <v>64</v>
-      </c>
-      <c r="E213" s="17" t="s">
-        <v>232</v>
+        <v>102</v>
+      </c>
+      <c r="E213" s="23" t="s">
+        <v>231</v>
       </c>
       <c r="F213" s="6">
         <v>1</v>
@@ -5821,10 +5763,10 @@
     </row>
     <row r="214" ht="15.5" spans="4:8">
       <c r="D214" t="s">
-        <v>64</v>
-      </c>
-      <c r="E214" s="17" t="s">
-        <v>233</v>
+        <v>102</v>
+      </c>
+      <c r="E214" s="23" t="s">
+        <v>232</v>
       </c>
       <c r="F214" s="6">
         <v>1</v>
@@ -5838,10 +5780,10 @@
     </row>
     <row r="215" ht="15.5" spans="4:8">
       <c r="D215" t="s">
-        <v>64</v>
-      </c>
-      <c r="E215" s="17" t="s">
-        <v>234</v>
+        <v>102</v>
+      </c>
+      <c r="E215" s="23" t="s">
+        <v>233</v>
       </c>
       <c r="F215" s="6">
         <v>1</v>
@@ -5855,10 +5797,10 @@
     </row>
     <row r="216" ht="15.5" spans="4:8">
       <c r="D216" t="s">
-        <v>64</v>
-      </c>
-      <c r="E216" s="17" t="s">
-        <v>235</v>
+        <v>102</v>
+      </c>
+      <c r="E216" s="23" t="s">
+        <v>234</v>
       </c>
       <c r="F216" s="6">
         <v>1</v>
@@ -5872,10 +5814,10 @@
     </row>
     <row r="217" ht="15.5" spans="4:8">
       <c r="D217" t="s">
-        <v>64</v>
-      </c>
-      <c r="E217" s="17" t="s">
-        <v>236</v>
+        <v>102</v>
+      </c>
+      <c r="E217" s="23" t="s">
+        <v>235</v>
       </c>
       <c r="F217" s="6">
         <v>1</v>
@@ -5889,10 +5831,10 @@
     </row>
     <row r="218" ht="15.5" spans="4:8">
       <c r="D218" t="s">
-        <v>64</v>
-      </c>
-      <c r="E218" s="17" t="s">
-        <v>237</v>
+        <v>102</v>
+      </c>
+      <c r="E218" s="23" t="s">
+        <v>236</v>
       </c>
       <c r="F218" s="6">
         <v>1</v>
@@ -5906,10 +5848,10 @@
     </row>
     <row r="219" ht="15.5" spans="4:8">
       <c r="D219" t="s">
-        <v>64</v>
-      </c>
-      <c r="E219" s="17" t="s">
-        <v>238</v>
+        <v>102</v>
+      </c>
+      <c r="E219" s="23" t="s">
+        <v>237</v>
       </c>
       <c r="F219" s="6">
         <v>1</v>
@@ -5923,10 +5865,10 @@
     </row>
     <row r="220" ht="15.5" spans="4:8">
       <c r="D220" t="s">
-        <v>64</v>
-      </c>
-      <c r="E220" s="17" t="s">
-        <v>239</v>
+        <v>102</v>
+      </c>
+      <c r="E220" s="23" t="s">
+        <v>238</v>
       </c>
       <c r="F220" s="6">
         <v>1</v>
@@ -5940,10 +5882,10 @@
     </row>
     <row r="221" ht="15.5" spans="4:8">
       <c r="D221" t="s">
-        <v>64</v>
-      </c>
-      <c r="E221" s="17" t="s">
-        <v>240</v>
+        <v>102</v>
+      </c>
+      <c r="E221" s="23" t="s">
+        <v>239</v>
       </c>
       <c r="F221" s="6">
         <v>1</v>
@@ -5957,10 +5899,10 @@
     </row>
     <row r="222" ht="15.5" spans="4:8">
       <c r="D222" t="s">
-        <v>64</v>
-      </c>
-      <c r="E222" s="17" t="s">
-        <v>241</v>
+        <v>102</v>
+      </c>
+      <c r="E222" s="23" t="s">
+        <v>240</v>
       </c>
       <c r="F222" s="6">
         <v>1</v>
@@ -5974,10 +5916,10 @@
     </row>
     <row r="223" ht="15.5" spans="4:8">
       <c r="D223" t="s">
-        <v>64</v>
-      </c>
-      <c r="E223" s="17" t="s">
-        <v>242</v>
+        <v>102</v>
+      </c>
+      <c r="E223" s="23" t="s">
+        <v>241</v>
       </c>
       <c r="F223" s="6">
         <v>1</v>
@@ -5991,10 +5933,10 @@
     </row>
     <row r="224" ht="15.5" spans="4:8">
       <c r="D224" t="s">
-        <v>64</v>
-      </c>
-      <c r="E224" s="17" t="s">
-        <v>243</v>
+        <v>102</v>
+      </c>
+      <c r="E224" s="23" t="s">
+        <v>242</v>
       </c>
       <c r="F224" s="6">
         <v>1</v>
@@ -6008,10 +5950,10 @@
     </row>
     <row r="225" ht="15.5" spans="4:8">
       <c r="D225" t="s">
-        <v>64</v>
-      </c>
-      <c r="E225" s="17" t="s">
-        <v>244</v>
+        <v>102</v>
+      </c>
+      <c r="E225" s="23" t="s">
+        <v>243</v>
       </c>
       <c r="F225" s="6">
         <v>1</v>
@@ -6025,10 +5967,10 @@
     </row>
     <row r="226" ht="15.5" spans="4:8">
       <c r="D226" t="s">
-        <v>64</v>
-      </c>
-      <c r="E226" s="17" t="s">
-        <v>245</v>
+        <v>102</v>
+      </c>
+      <c r="E226" s="23" t="s">
+        <v>244</v>
       </c>
       <c r="F226" s="6">
         <v>1</v>
@@ -6042,10 +5984,10 @@
     </row>
     <row r="227" ht="15.5" spans="4:8">
       <c r="D227" t="s">
-        <v>64</v>
-      </c>
-      <c r="E227" s="17" t="s">
-        <v>246</v>
+        <v>102</v>
+      </c>
+      <c r="E227" s="23" t="s">
+        <v>245</v>
       </c>
       <c r="F227" s="6">
         <v>1</v>
@@ -6059,10 +6001,10 @@
     </row>
     <row r="228" ht="15.5" spans="4:8">
       <c r="D228" t="s">
-        <v>64</v>
-      </c>
-      <c r="E228" s="17" t="s">
-        <v>247</v>
+        <v>102</v>
+      </c>
+      <c r="E228" s="23" t="s">
+        <v>246</v>
       </c>
       <c r="F228" s="6">
         <v>1</v>
@@ -6076,10 +6018,10 @@
     </row>
     <row r="229" ht="15.5" spans="4:8">
       <c r="D229" t="s">
-        <v>64</v>
-      </c>
-      <c r="E229" s="17" t="s">
-        <v>248</v>
+        <v>102</v>
+      </c>
+      <c r="E229" s="23" t="s">
+        <v>247</v>
       </c>
       <c r="F229" s="6">
         <v>1</v>
@@ -6093,10 +6035,10 @@
     </row>
     <row r="230" ht="15.5" spans="4:8">
       <c r="D230" t="s">
-        <v>64</v>
-      </c>
-      <c r="E230" s="17" t="s">
-        <v>249</v>
+        <v>102</v>
+      </c>
+      <c r="E230" s="23" t="s">
+        <v>248</v>
       </c>
       <c r="F230" s="6">
         <v>1</v>
@@ -6110,10 +6052,10 @@
     </row>
     <row r="231" ht="15.5" spans="4:8">
       <c r="D231" t="s">
-        <v>64</v>
-      </c>
-      <c r="E231" s="17" t="s">
-        <v>250</v>
+        <v>102</v>
+      </c>
+      <c r="E231" s="23" t="s">
+        <v>249</v>
       </c>
       <c r="F231" s="6">
         <v>1</v>
@@ -6127,10 +6069,10 @@
     </row>
     <row r="232" ht="15.5" spans="4:8">
       <c r="D232" t="s">
-        <v>64</v>
-      </c>
-      <c r="E232" s="17" t="s">
-        <v>251</v>
+        <v>102</v>
+      </c>
+      <c r="E232" s="24" t="s">
+        <v>250</v>
       </c>
       <c r="F232" s="6">
         <v>1</v>
@@ -6144,10 +6086,10 @@
     </row>
     <row r="233" ht="15.5" spans="4:8">
       <c r="D233" t="s">
-        <v>64</v>
-      </c>
-      <c r="E233" s="17" t="s">
-        <v>252</v>
+        <v>102</v>
+      </c>
+      <c r="E233" s="23" t="s">
+        <v>251</v>
       </c>
       <c r="F233" s="6">
         <v>1</v>
@@ -6161,10 +6103,10 @@
     </row>
     <row r="234" ht="15.5" spans="4:8">
       <c r="D234" t="s">
-        <v>64</v>
-      </c>
-      <c r="E234" s="17" t="s">
-        <v>253</v>
+        <v>102</v>
+      </c>
+      <c r="E234" s="23" t="s">
+        <v>252</v>
       </c>
       <c r="F234" s="6">
         <v>1</v>
@@ -6178,10 +6120,10 @@
     </row>
     <row r="235" ht="15.5" spans="4:8">
       <c r="D235" t="s">
-        <v>64</v>
-      </c>
-      <c r="E235" s="17" t="s">
-        <v>254</v>
+        <v>102</v>
+      </c>
+      <c r="E235" s="23" t="s">
+        <v>253</v>
       </c>
       <c r="F235" s="6">
         <v>1</v>
@@ -6195,26 +6137,32 @@
     </row>
     <row r="236" ht="15.5" spans="4:8">
       <c r="D236" t="s">
-        <v>64</v>
-      </c>
-      <c r="E236" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E236" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="F236" s="6">
+        <v>1</v>
+      </c>
+      <c r="G236" s="6">
+        <v>1</v>
+      </c>
+      <c r="H236" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" ht="15.5" spans="2:8">
+      <c r="B237" s="3">
+        <v>1009</v>
+      </c>
+      <c r="C237" s="3">
+        <v>1</v>
+      </c>
+      <c r="D237" t="s">
         <v>255</v>
       </c>
-      <c r="F236" s="6">
-        <v>1</v>
-      </c>
-      <c r="G236" s="6">
-        <v>1</v>
-      </c>
-      <c r="H236" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="237" ht="15.5" spans="4:8">
-      <c r="D237" t="s">
-        <v>64</v>
-      </c>
-      <c r="E237" s="18" t="s">
+      <c r="E237" s="25" t="s">
         <v>256</v>
       </c>
       <c r="F237" s="6">
@@ -6227,11 +6175,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" ht="15.5" spans="4:8">
-      <c r="D238" t="s">
-        <v>64</v>
-      </c>
-      <c r="E238" s="17" t="s">
+    <row r="238" ht="15.5" spans="5:8">
+      <c r="E238" s="25" t="s">
         <v>257</v>
       </c>
       <c r="F238" s="6">
@@ -6244,11 +6189,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" ht="15.5" spans="4:8">
-      <c r="D239" t="s">
-        <v>64</v>
-      </c>
-      <c r="E239" s="17" t="s">
+    <row r="239" ht="15.5" spans="5:8">
+      <c r="E239" s="25" t="s">
         <v>258</v>
       </c>
       <c r="F239" s="6">
@@ -6261,11 +6203,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" ht="15.5" spans="4:8">
-      <c r="D240" t="s">
-        <v>64</v>
-      </c>
-      <c r="E240" s="17" t="s">
+    <row r="240" ht="15.5" spans="5:8">
+      <c r="E240" s="25" t="s">
         <v>259</v>
       </c>
       <c r="F240" s="6">
@@ -6278,13 +6217,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" ht="15.5" spans="4:8">
+    <row r="241" ht="15.5" spans="2:8">
+      <c r="B241" s="3">
+        <v>1010</v>
+      </c>
+      <c r="C241" s="3">
+        <v>1</v>
+      </c>
       <c r="D241" t="s">
-        <v>64</v>
-      </c>
-      <c r="E241" s="17" t="s">
         <v>260</v>
       </c>
+      <c r="E241" s="25" t="s">
+        <v>261</v>
+      </c>
       <c r="F241" s="6">
         <v>1</v>
       </c>
@@ -6295,12 +6240,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" ht="15.5" spans="4:8">
-      <c r="D242" t="s">
-        <v>64</v>
-      </c>
-      <c r="E242" s="17" t="s">
-        <v>261</v>
+    <row r="242" ht="15.5" spans="5:8">
+      <c r="E242" s="25" t="s">
+        <v>262</v>
       </c>
       <c r="F242" s="6">
         <v>1</v>
@@ -6312,12 +6254,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" ht="15.5" spans="4:8">
-      <c r="D243" t="s">
-        <v>64</v>
-      </c>
-      <c r="E243" s="17" t="s">
-        <v>262</v>
+    <row r="243" ht="15.5" spans="5:8">
+      <c r="E243" s="25" t="s">
+        <v>259</v>
       </c>
       <c r="F243" s="6">
         <v>1</v>
@@ -6329,17 +6268,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" ht="15.5" spans="2:8">
-      <c r="B244" s="3">
-        <v>1008</v>
-      </c>
-      <c r="C244" s="3">
-        <v>1</v>
-      </c>
-      <c r="D244" t="s">
-        <v>102</v>
-      </c>
-      <c r="E244" s="17" t="s">
+    <row r="244" ht="15.5" spans="5:8">
+      <c r="E244" s="25" t="s">
         <v>263</v>
       </c>
       <c r="F244" s="6">
@@ -6352,11 +6282,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" ht="15.5" spans="4:8">
-      <c r="D245" t="s">
-        <v>102</v>
-      </c>
-      <c r="E245" s="17" t="s">
+    <row r="245" ht="15.5" spans="5:8">
+      <c r="E245" s="25" t="s">
         <v>264</v>
       </c>
       <c r="F245" s="6">
@@ -6369,11 +6296,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" ht="15.5" spans="4:8">
-      <c r="D246" t="s">
-        <v>102</v>
-      </c>
-      <c r="E246" s="17" t="s">
+    <row r="246" ht="15.5" spans="5:8">
+      <c r="E246" s="25" t="s">
         <v>265</v>
       </c>
       <c r="F246" s="6">
@@ -6386,11 +6310,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" ht="15.5" spans="4:8">
-      <c r="D247" t="s">
-        <v>102</v>
-      </c>
-      <c r="E247" s="17" t="s">
+    <row r="247" ht="15.5" spans="5:8">
+      <c r="E247" s="25" t="s">
         <v>266</v>
       </c>
       <c r="F247" s="6">
@@ -6403,11 +6324,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" ht="15.5" spans="4:8">
-      <c r="D248" t="s">
-        <v>102</v>
-      </c>
-      <c r="E248" s="17" t="s">
+    <row r="248" ht="15.5" spans="5:8">
+      <c r="E248" s="25" t="s">
         <v>267</v>
       </c>
       <c r="F248" s="6">
@@ -6420,13 +6338,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" ht="15.5" spans="4:8">
+    <row r="249" ht="15.5" spans="2:8">
+      <c r="B249" s="3">
+        <v>1011</v>
+      </c>
+      <c r="C249" s="3">
+        <v>1</v>
+      </c>
       <c r="D249" t="s">
-        <v>102</v>
-      </c>
-      <c r="E249" s="17" t="s">
         <v>268</v>
       </c>
+      <c r="E249" s="25" t="s">
+        <v>269</v>
+      </c>
       <c r="F249" s="6">
         <v>1</v>
       </c>
@@ -6437,12 +6361,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" ht="15.5" spans="4:8">
-      <c r="D250" t="s">
-        <v>102</v>
-      </c>
-      <c r="E250" s="17" t="s">
-        <v>269</v>
+    <row r="250" ht="15.5" spans="5:8">
+      <c r="E250" s="25" t="s">
+        <v>270</v>
       </c>
       <c r="F250" s="6">
         <v>1</v>
@@ -6454,12 +6375,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" ht="15.5" spans="4:8">
-      <c r="D251" t="s">
-        <v>102</v>
-      </c>
-      <c r="E251" s="17" t="s">
-        <v>270</v>
+    <row r="251" ht="15.5" spans="5:8">
+      <c r="E251" s="25" t="s">
+        <v>267</v>
       </c>
       <c r="F251" s="6">
         <v>1</v>
@@ -6471,11 +6389,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" ht="15.5" spans="4:8">
-      <c r="D252" t="s">
-        <v>102</v>
-      </c>
-      <c r="E252" s="17" t="s">
+    <row r="252" ht="15.5" spans="5:8">
+      <c r="E252" s="25" t="s">
         <v>271</v>
       </c>
       <c r="F252" s="6">
@@ -6488,11 +6403,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" ht="15.5" spans="4:8">
-      <c r="D253" t="s">
-        <v>102</v>
-      </c>
-      <c r="E253" s="17" t="s">
+    <row r="253" ht="15.5" spans="5:8">
+      <c r="E253" s="25" t="s">
         <v>272</v>
       </c>
       <c r="F253" s="6">
@@ -6505,13 +6417,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" ht="15.5" spans="4:8">
+    <row r="254" spans="2:8">
+      <c r="B254" s="3">
+        <v>1012</v>
+      </c>
+      <c r="C254" s="3">
+        <v>1</v>
+      </c>
       <c r="D254" t="s">
-        <v>102</v>
-      </c>
-      <c r="E254" s="17" t="s">
         <v>273</v>
       </c>
+      <c r="E254" s="26" t="s">
+        <v>274</v>
+      </c>
       <c r="F254" s="6">
         <v>1</v>
       </c>
@@ -6522,12 +6440,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" ht="15.5" spans="4:8">
-      <c r="D255" t="s">
-        <v>102</v>
-      </c>
-      <c r="E255" s="17" t="s">
-        <v>274</v>
+    <row r="255" spans="5:8">
+      <c r="E255" s="26" t="s">
+        <v>275</v>
       </c>
       <c r="F255" s="6">
         <v>1</v>
@@ -6539,12 +6454,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" ht="15.5" spans="4:8">
-      <c r="D256" t="s">
-        <v>102</v>
-      </c>
-      <c r="E256" s="17" t="s">
-        <v>275</v>
+    <row r="256" spans="5:8">
+      <c r="E256" s="26" t="s">
+        <v>276</v>
       </c>
       <c r="F256" s="6">
         <v>1</v>
@@ -6556,12 +6468,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" ht="15.5" spans="4:8">
-      <c r="D257" t="s">
-        <v>102</v>
-      </c>
-      <c r="E257" s="17" t="s">
-        <v>276</v>
+    <row r="257" spans="5:8">
+      <c r="E257" s="26" t="s">
+        <v>277</v>
       </c>
       <c r="F257" s="6">
         <v>1</v>
@@ -6573,12 +6482,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" ht="15.5" spans="4:8">
-      <c r="D258" t="s">
-        <v>102</v>
-      </c>
-      <c r="E258" s="17" t="s">
-        <v>277</v>
+    <row r="258" spans="5:8">
+      <c r="E258" s="26" t="s">
+        <v>278</v>
       </c>
       <c r="F258" s="6">
         <v>1</v>
@@ -6590,12 +6496,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" ht="15.5" spans="4:8">
-      <c r="D259" t="s">
-        <v>102</v>
-      </c>
-      <c r="E259" s="17" t="s">
-        <v>278</v>
+    <row r="259" spans="5:8">
+      <c r="E259" s="26" t="s">
+        <v>279</v>
       </c>
       <c r="F259" s="6">
         <v>1</v>
@@ -6607,12 +6510,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" ht="15.5" spans="4:8">
-      <c r="D260" t="s">
-        <v>102</v>
-      </c>
-      <c r="E260" s="17" t="s">
-        <v>279</v>
+    <row r="260" spans="5:8">
+      <c r="E260" s="26" t="s">
+        <v>280</v>
       </c>
       <c r="F260" s="6">
         <v>1</v>
@@ -6624,12 +6524,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" ht="15.5" spans="4:8">
-      <c r="D261" t="s">
-        <v>102</v>
-      </c>
-      <c r="E261" s="17" t="s">
-        <v>280</v>
+    <row r="261" spans="5:8">
+      <c r="E261" s="26" t="s">
+        <v>281</v>
       </c>
       <c r="F261" s="6">
         <v>1</v>
@@ -6641,12 +6538,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" ht="15.5" spans="4:8">
-      <c r="D262" t="s">
-        <v>102</v>
-      </c>
-      <c r="E262" s="17" t="s">
-        <v>281</v>
+    <row r="262" spans="5:8">
+      <c r="E262" s="26" t="s">
+        <v>282</v>
       </c>
       <c r="F262" s="6">
         <v>1</v>
@@ -6658,12 +6552,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" ht="15.5" spans="4:8">
-      <c r="D263" t="s">
-        <v>102</v>
-      </c>
-      <c r="E263" s="17" t="s">
-        <v>282</v>
+    <row r="263" spans="5:8">
+      <c r="E263" s="26" t="s">
+        <v>283</v>
       </c>
       <c r="F263" s="6">
         <v>1</v>
@@ -6675,17 +6566,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" ht="15.5" spans="2:8">
-      <c r="B264" s="3">
-        <v>1009</v>
-      </c>
-      <c r="C264" s="3">
-        <v>1</v>
-      </c>
-      <c r="D264" t="s">
-        <v>283</v>
-      </c>
-      <c r="E264" s="19" t="s">
+    <row r="264" spans="5:8">
+      <c r="E264" s="26" t="s">
         <v>284</v>
       </c>
       <c r="F264" s="6">
@@ -6698,8 +6580,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" ht="15.5" spans="5:8">
-      <c r="E265" s="19" t="s">
+    <row r="265" spans="5:8">
+      <c r="E265" s="26" t="s">
         <v>285</v>
       </c>
       <c r="F265" s="6">
@@ -6712,8 +6594,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" ht="15.5" spans="5:8">
-      <c r="E266" s="19" t="s">
+    <row r="266" spans="5:8">
+      <c r="E266" s="26" t="s">
         <v>286</v>
       </c>
       <c r="F266" s="6">
@@ -6726,8 +6608,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" ht="15.5" spans="5:8">
-      <c r="E267" s="19" t="s">
+    <row r="267" spans="5:8">
+      <c r="E267" s="26" t="s">
         <v>287</v>
       </c>
       <c r="F267" s="6">
@@ -6740,47 +6622,38 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" ht="15.5" spans="2:8">
-      <c r="B268" s="3">
-        <v>1010</v>
-      </c>
-      <c r="C268" s="3">
-        <v>1</v>
-      </c>
-      <c r="D268" t="s">
+    <row r="268" spans="5:8">
+      <c r="E268" s="26" t="s">
         <v>288</v>
       </c>
-      <c r="E268" s="19" t="s">
+      <c r="F268" s="6">
+        <v>1</v>
+      </c>
+      <c r="G268" s="6">
+        <v>1</v>
+      </c>
+      <c r="H268" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="5:8">
+      <c r="E269" s="26" t="s">
         <v>289</v>
       </c>
-      <c r="F268" s="6">
-        <v>1</v>
-      </c>
-      <c r="G268" s="6">
-        <v>1</v>
-      </c>
-      <c r="H268" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="269" ht="15.5" spans="5:8">
-      <c r="E269" s="19" t="s">
+      <c r="F269" s="6">
+        <v>1</v>
+      </c>
+      <c r="G269" s="6">
+        <v>1</v>
+      </c>
+      <c r="H269" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="5:8">
+      <c r="E270" s="26" t="s">
         <v>290</v>
       </c>
-      <c r="F269" s="6">
-        <v>1</v>
-      </c>
-      <c r="G269" s="6">
-        <v>1</v>
-      </c>
-      <c r="H269" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="270" ht="15.5" spans="5:8">
-      <c r="E270" s="19" t="s">
-        <v>287</v>
-      </c>
       <c r="F270" s="6">
         <v>1</v>
       </c>
@@ -6791,8 +6664,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" ht="15.5" spans="5:8">
-      <c r="E271" s="19" t="s">
+    <row r="271" spans="5:8">
+      <c r="E271" s="26" t="s">
         <v>291</v>
       </c>
       <c r="F271" s="6">
@@ -6805,8 +6678,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" ht="15.5" spans="5:8">
-      <c r="E272" s="19" t="s">
+    <row r="272" spans="5:8">
+      <c r="E272" s="26" t="s">
         <v>292</v>
       </c>
       <c r="F272" s="6">
@@ -6819,8 +6692,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" ht="15.5" spans="5:8">
-      <c r="E273" s="19" t="s">
+    <row r="273" spans="5:8">
+      <c r="E273" s="26" t="s">
         <v>293</v>
       </c>
       <c r="F273" s="6">
@@ -6833,8 +6706,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" ht="15.5" spans="5:8">
-      <c r="E274" s="19" t="s">
+    <row r="274" spans="5:8">
+      <c r="E274" s="26" t="s">
         <v>294</v>
       </c>
       <c r="F274" s="6">
@@ -6847,8 +6720,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" ht="15.5" spans="5:8">
-      <c r="E275" s="19" t="s">
+    <row r="275" spans="5:8">
+      <c r="E275" s="26" t="s">
         <v>295</v>
       </c>
       <c r="F275" s="6">
@@ -6861,47 +6734,38 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" ht="15.5" spans="2:8">
-      <c r="B276" s="3">
-        <v>1011</v>
-      </c>
-      <c r="C276" s="3">
-        <v>1</v>
-      </c>
-      <c r="D276" t="s">
+    <row r="276" spans="5:8">
+      <c r="E276" s="26" t="s">
         <v>296</v>
       </c>
-      <c r="E276" s="19" t="s">
+      <c r="F276" s="6">
+        <v>1</v>
+      </c>
+      <c r="G276" s="6">
+        <v>1</v>
+      </c>
+      <c r="H276" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="5:8">
+      <c r="E277" s="26" t="s">
         <v>297</v>
       </c>
-      <c r="F276" s="6">
-        <v>1</v>
-      </c>
-      <c r="G276" s="6">
-        <v>1</v>
-      </c>
-      <c r="H276" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="277" ht="15.5" spans="5:8">
-      <c r="E277" s="19" t="s">
+      <c r="F277" s="6">
+        <v>1</v>
+      </c>
+      <c r="G277" s="6">
+        <v>1</v>
+      </c>
+      <c r="H277" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="5:8">
+      <c r="E278" s="26" t="s">
         <v>298</v>
       </c>
-      <c r="F277" s="6">
-        <v>1</v>
-      </c>
-      <c r="G277" s="6">
-        <v>1</v>
-      </c>
-      <c r="H277" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="278" ht="15.5" spans="5:8">
-      <c r="E278" s="19" t="s">
-        <v>295</v>
-      </c>
       <c r="F278" s="6">
         <v>1</v>
       </c>
@@ -6912,8 +6776,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" ht="15.5" spans="5:8">
-      <c r="E279" s="19" t="s">
+    <row r="279" spans="5:8">
+      <c r="E279" s="26" t="s">
         <v>299</v>
       </c>
       <c r="F279" s="6">
@@ -6926,8 +6790,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" ht="15.5" spans="5:8">
-      <c r="E280" s="19" t="s">
+    <row r="280" spans="5:8">
+      <c r="E280" s="26" t="s">
         <v>300</v>
       </c>
       <c r="F280" s="6">
@@ -6940,409 +6804,409 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="2:8">
-      <c r="B281" s="3">
-        <v>1012</v>
-      </c>
-      <c r="C281" s="3">
-        <v>1</v>
-      </c>
-      <c r="D281" t="s">
+    <row r="281" spans="5:8">
+      <c r="E281" s="26" t="s">
         <v>301</v>
       </c>
-      <c r="E281" s="20" t="s">
+      <c r="F281" s="6">
+        <v>1</v>
+      </c>
+      <c r="G281" s="6">
+        <v>1</v>
+      </c>
+      <c r="H281" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="5:8">
+      <c r="E282" s="26" t="s">
         <v>302</v>
       </c>
-      <c r="F281" s="6">
-        <v>1</v>
-      </c>
-      <c r="G281" s="6">
-        <v>1</v>
-      </c>
-      <c r="H281" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="282" spans="5:8">
-      <c r="E282" s="20" t="s">
+      <c r="F282" s="6">
+        <v>1</v>
+      </c>
+      <c r="G282" s="6">
+        <v>1</v>
+      </c>
+      <c r="H282" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="5:8">
+      <c r="E283" s="26" t="s">
         <v>303</v>
       </c>
-      <c r="F282" s="6">
-        <v>1</v>
-      </c>
-      <c r="G282" s="6">
-        <v>1</v>
-      </c>
-      <c r="H282" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="283" spans="5:8">
-      <c r="E283" s="20" t="s">
+      <c r="F283" s="6">
+        <v>1</v>
+      </c>
+      <c r="G283" s="6">
+        <v>1</v>
+      </c>
+      <c r="H283" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="5:8">
+      <c r="E284" s="26" t="s">
         <v>304</v>
       </c>
-      <c r="F283" s="6">
-        <v>1</v>
-      </c>
-      <c r="G283" s="6">
-        <v>1</v>
-      </c>
-      <c r="H283" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="284" spans="5:8">
-      <c r="E284" s="20" t="s">
+      <c r="F284" s="6">
+        <v>1</v>
+      </c>
+      <c r="G284" s="6">
+        <v>1</v>
+      </c>
+      <c r="H284" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="5:8">
+      <c r="E285" s="26" t="s">
         <v>305</v>
       </c>
-      <c r="F284" s="6">
-        <v>1</v>
-      </c>
-      <c r="G284" s="6">
-        <v>1</v>
-      </c>
-      <c r="H284" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="285" spans="5:8">
-      <c r="E285" s="20" t="s">
+      <c r="F285" s="6">
+        <v>1</v>
+      </c>
+      <c r="G285" s="6">
+        <v>1</v>
+      </c>
+      <c r="H285" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="5:8">
+      <c r="E286" s="26" t="s">
         <v>306</v>
       </c>
-      <c r="F285" s="6">
-        <v>1</v>
-      </c>
-      <c r="G285" s="6">
-        <v>1</v>
-      </c>
-      <c r="H285" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="286" spans="5:8">
-      <c r="E286" s="20" t="s">
+      <c r="F286" s="6">
+        <v>1</v>
+      </c>
+      <c r="G286" s="6">
+        <v>1</v>
+      </c>
+      <c r="H286" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="5:8">
+      <c r="E287" s="26" t="s">
         <v>307</v>
       </c>
-      <c r="F286" s="6">
-        <v>1</v>
-      </c>
-      <c r="G286" s="6">
-        <v>1</v>
-      </c>
-      <c r="H286" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="287" spans="5:8">
-      <c r="E287" s="20" t="s">
+      <c r="F287" s="6">
+        <v>1</v>
+      </c>
+      <c r="G287" s="6">
+        <v>1</v>
+      </c>
+      <c r="H287" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="5:8">
+      <c r="E288" s="26" t="s">
         <v>308</v>
       </c>
-      <c r="F287" s="6">
-        <v>1</v>
-      </c>
-      <c r="G287" s="6">
-        <v>1</v>
-      </c>
-      <c r="H287" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="288" spans="5:8">
-      <c r="E288" s="20" t="s">
+      <c r="F288" s="6">
+        <v>1</v>
+      </c>
+      <c r="G288" s="6">
+        <v>1</v>
+      </c>
+      <c r="H288" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="5:8">
+      <c r="E289" s="26" t="s">
         <v>309</v>
       </c>
-      <c r="F288" s="6">
-        <v>1</v>
-      </c>
-      <c r="G288" s="6">
-        <v>1</v>
-      </c>
-      <c r="H288" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="289" spans="5:8">
-      <c r="E289" s="20" t="s">
+      <c r="F289" s="6">
+        <v>1</v>
+      </c>
+      <c r="G289" s="6">
+        <v>1</v>
+      </c>
+      <c r="H289" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="5:8">
+      <c r="E290" s="26" t="s">
         <v>310</v>
       </c>
-      <c r="F289" s="6">
-        <v>1</v>
-      </c>
-      <c r="G289" s="6">
-        <v>1</v>
-      </c>
-      <c r="H289" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="290" spans="5:8">
-      <c r="E290" s="20" t="s">
+      <c r="F290" s="6">
+        <v>1</v>
+      </c>
+      <c r="G290" s="6">
+        <v>1</v>
+      </c>
+      <c r="H290" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="5:8">
+      <c r="E291" s="26" t="s">
         <v>311</v>
       </c>
-      <c r="F290" s="6">
-        <v>1</v>
-      </c>
-      <c r="G290" s="6">
-        <v>1</v>
-      </c>
-      <c r="H290" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="291" spans="5:8">
-      <c r="E291" s="20" t="s">
+      <c r="F291" s="6">
+        <v>1</v>
+      </c>
+      <c r="G291" s="6">
+        <v>1</v>
+      </c>
+      <c r="H291" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="5:8">
+      <c r="E292" s="26" t="s">
         <v>312</v>
       </c>
-      <c r="F291" s="6">
-        <v>1</v>
-      </c>
-      <c r="G291" s="6">
-        <v>1</v>
-      </c>
-      <c r="H291" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="292" spans="5:8">
-      <c r="E292" s="20" t="s">
+      <c r="F292" s="6">
+        <v>1</v>
+      </c>
+      <c r="G292" s="6">
+        <v>1</v>
+      </c>
+      <c r="H292" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="5:8">
+      <c r="E293" s="26" t="s">
         <v>313</v>
       </c>
-      <c r="F292" s="6">
-        <v>1</v>
-      </c>
-      <c r="G292" s="6">
-        <v>1</v>
-      </c>
-      <c r="H292" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="293" spans="5:8">
-      <c r="E293" s="20" t="s">
+      <c r="F293" s="6">
+        <v>1</v>
+      </c>
+      <c r="G293" s="6">
+        <v>1</v>
+      </c>
+      <c r="H293" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="5:8">
+      <c r="E294" s="26" t="s">
         <v>314</v>
       </c>
-      <c r="F293" s="6">
-        <v>1</v>
-      </c>
-      <c r="G293" s="6">
-        <v>1</v>
-      </c>
-      <c r="H293" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="294" spans="5:8">
-      <c r="E294" s="20" t="s">
+      <c r="F294" s="6">
+        <v>1</v>
+      </c>
+      <c r="G294" s="6">
+        <v>1</v>
+      </c>
+      <c r="H294" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="5:8">
+      <c r="E295" s="26" t="s">
         <v>315</v>
       </c>
-      <c r="F294" s="6">
-        <v>1</v>
-      </c>
-      <c r="G294" s="6">
-        <v>1</v>
-      </c>
-      <c r="H294" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="295" spans="5:8">
-      <c r="E295" s="20" t="s">
+      <c r="F295" s="6">
+        <v>1</v>
+      </c>
+      <c r="G295" s="6">
+        <v>1</v>
+      </c>
+      <c r="H295" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="5:8">
+      <c r="E296" s="26" t="s">
         <v>316</v>
       </c>
-      <c r="F295" s="6">
-        <v>1</v>
-      </c>
-      <c r="G295" s="6">
-        <v>1</v>
-      </c>
-      <c r="H295" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="296" spans="5:8">
-      <c r="E296" s="20" t="s">
+      <c r="F296" s="6">
+        <v>1</v>
+      </c>
+      <c r="G296" s="6">
+        <v>1</v>
+      </c>
+      <c r="H296" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="5:8">
+      <c r="E297" s="26" t="s">
         <v>317</v>
       </c>
-      <c r="F296" s="6">
-        <v>1</v>
-      </c>
-      <c r="G296" s="6">
-        <v>1</v>
-      </c>
-      <c r="H296" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="297" spans="5:8">
-      <c r="E297" s="20" t="s">
+      <c r="F297" s="6">
+        <v>1</v>
+      </c>
+      <c r="G297" s="6">
+        <v>1</v>
+      </c>
+      <c r="H297" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="5:8">
+      <c r="E298" s="26" t="s">
         <v>318</v>
       </c>
-      <c r="F297" s="6">
-        <v>1</v>
-      </c>
-      <c r="G297" s="6">
-        <v>1</v>
-      </c>
-      <c r="H297" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="298" spans="5:8">
-      <c r="E298" s="20" t="s">
+      <c r="F298" s="6">
+        <v>1</v>
+      </c>
+      <c r="G298" s="6">
+        <v>1</v>
+      </c>
+      <c r="H298" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="5:8">
+      <c r="E299" s="26" t="s">
         <v>319</v>
       </c>
-      <c r="F298" s="6">
-        <v>1</v>
-      </c>
-      <c r="G298" s="6">
-        <v>1</v>
-      </c>
-      <c r="H298" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="299" spans="5:8">
-      <c r="E299" s="20" t="s">
+      <c r="F299" s="6">
+        <v>1</v>
+      </c>
+      <c r="G299" s="6">
+        <v>1</v>
+      </c>
+      <c r="H299" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="5:8">
+      <c r="E300" s="26" t="s">
         <v>320</v>
       </c>
-      <c r="F299" s="6">
-        <v>1</v>
-      </c>
-      <c r="G299" s="6">
-        <v>1</v>
-      </c>
-      <c r="H299" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="300" spans="5:8">
-      <c r="E300" s="20" t="s">
+      <c r="F300" s="6">
+        <v>1</v>
+      </c>
+      <c r="G300" s="6">
+        <v>1</v>
+      </c>
+      <c r="H300" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="5:8">
+      <c r="E301" s="26" t="s">
         <v>321</v>
       </c>
-      <c r="F300" s="6">
-        <v>1</v>
-      </c>
-      <c r="G300" s="6">
-        <v>1</v>
-      </c>
-      <c r="H300" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="301" spans="5:8">
-      <c r="E301" s="20" t="s">
+      <c r="F301" s="6">
+        <v>1</v>
+      </c>
+      <c r="G301" s="6">
+        <v>1</v>
+      </c>
+      <c r="H301" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="5:8">
+      <c r="E302" s="26" t="s">
         <v>322</v>
       </c>
-      <c r="F301" s="6">
-        <v>1</v>
-      </c>
-      <c r="G301" s="6">
-        <v>1</v>
-      </c>
-      <c r="H301" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="302" spans="5:8">
-      <c r="E302" s="20" t="s">
+      <c r="F302" s="6">
+        <v>1</v>
+      </c>
+      <c r="G302" s="6">
+        <v>1</v>
+      </c>
+      <c r="H302" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="5:8">
+      <c r="E303" s="26" t="s">
         <v>323</v>
       </c>
-      <c r="F302" s="6">
-        <v>1</v>
-      </c>
-      <c r="G302" s="6">
-        <v>1</v>
-      </c>
-      <c r="H302" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="303" spans="5:8">
-      <c r="E303" s="20" t="s">
+      <c r="F303" s="6">
+        <v>1</v>
+      </c>
+      <c r="G303" s="6">
+        <v>1</v>
+      </c>
+      <c r="H303" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="5:8">
+      <c r="E304" s="26" t="s">
         <v>324</v>
       </c>
-      <c r="F303" s="6">
-        <v>1</v>
-      </c>
-      <c r="G303" s="6">
-        <v>1</v>
-      </c>
-      <c r="H303" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="304" spans="5:8">
-      <c r="E304" s="20" t="s">
+      <c r="F304" s="6">
+        <v>1</v>
+      </c>
+      <c r="G304" s="6">
+        <v>1</v>
+      </c>
+      <c r="H304" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="5:8">
+      <c r="E305" s="26" t="s">
         <v>325</v>
       </c>
-      <c r="F304" s="6">
-        <v>1</v>
-      </c>
-      <c r="G304" s="6">
-        <v>1</v>
-      </c>
-      <c r="H304" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="305" spans="5:8">
-      <c r="E305" s="20" t="s">
+      <c r="F305" s="6">
+        <v>1</v>
+      </c>
+      <c r="G305" s="6">
+        <v>1</v>
+      </c>
+      <c r="H305" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="5:8">
+      <c r="E306" s="26" t="s">
         <v>326</v>
       </c>
-      <c r="F305" s="6">
-        <v>1</v>
-      </c>
-      <c r="G305" s="6">
-        <v>1</v>
-      </c>
-      <c r="H305" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="306" spans="5:8">
-      <c r="E306" s="20" t="s">
+      <c r="F306" s="6">
+        <v>1</v>
+      </c>
+      <c r="G306" s="6">
+        <v>1</v>
+      </c>
+      <c r="H306" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="5:8">
+      <c r="E307" s="26" t="s">
         <v>327</v>
       </c>
-      <c r="F306" s="6">
-        <v>1</v>
-      </c>
-      <c r="G306" s="6">
-        <v>1</v>
-      </c>
-      <c r="H306" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="307" spans="5:8">
-      <c r="E307" s="20" t="s">
+      <c r="F307" s="6">
+        <v>1</v>
+      </c>
+      <c r="G307" s="6">
+        <v>1</v>
+      </c>
+      <c r="H307" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="5:8">
+      <c r="E308" s="26" t="s">
         <v>328</v>
       </c>
-      <c r="F307" s="6">
-        <v>1</v>
-      </c>
-      <c r="G307" s="6">
-        <v>1</v>
-      </c>
-      <c r="H307" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="308" spans="5:8">
-      <c r="E308" s="20" t="s">
+      <c r="F308" s="6">
+        <v>1</v>
+      </c>
+      <c r="G308" s="6">
+        <v>1</v>
+      </c>
+      <c r="H308" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" ht="15.5" spans="2:8">
+      <c r="B309" s="3">
+        <v>1013</v>
+      </c>
+      <c r="C309" s="3">
+        <v>1</v>
+      </c>
+      <c r="D309" t="s">
         <v>329</v>
       </c>
-      <c r="F308" s="6">
-        <v>1</v>
-      </c>
-      <c r="G308" s="6">
-        <v>1</v>
-      </c>
-      <c r="H308" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="309" spans="5:8">
-      <c r="E309" s="20" t="s">
+      <c r="E309" s="25" t="s">
         <v>330</v>
       </c>
       <c r="F309" s="6">
@@ -7355,8 +7219,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="5:8">
-      <c r="E310" s="20" t="s">
+    <row r="310" ht="15.5" spans="2:8">
+      <c r="B310" s="3">
+        <v>1014</v>
+      </c>
+      <c r="C310" s="3">
+        <v>1</v>
+      </c>
+      <c r="D310" t="s">
+        <v>329</v>
+      </c>
+      <c r="E310" s="25" t="s">
         <v>331</v>
       </c>
       <c r="F310" s="6">
@@ -7369,8 +7242,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="5:8">
-      <c r="E311" s="20" t="s">
+    <row r="311" ht="15.5" spans="2:8">
+      <c r="B311" s="3">
+        <v>1015</v>
+      </c>
+      <c r="C311" s="3">
+        <v>1</v>
+      </c>
+      <c r="D311" t="s">
+        <v>329</v>
+      </c>
+      <c r="E311" s="25" t="s">
         <v>332</v>
       </c>
       <c r="F311" s="6">
@@ -7383,8 +7265,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="5:8">
-      <c r="E312" s="20" t="s">
+    <row r="312" ht="15.5" spans="2:8">
+      <c r="B312" s="3">
+        <v>1016</v>
+      </c>
+      <c r="C312" s="3">
+        <v>1</v>
+      </c>
+      <c r="D312" t="s">
+        <v>329</v>
+      </c>
+      <c r="E312" s="25" t="s">
         <v>333</v>
       </c>
       <c r="F312" s="6">
@@ -7394,420 +7285,6 @@
         <v>1</v>
       </c>
       <c r="H312" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="313" spans="5:8">
-      <c r="E313" s="20" t="s">
-        <v>334</v>
-      </c>
-      <c r="F313" s="6">
-        <v>1</v>
-      </c>
-      <c r="G313" s="6">
-        <v>1</v>
-      </c>
-      <c r="H313" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="314" spans="5:8">
-      <c r="E314" s="20" t="s">
-        <v>335</v>
-      </c>
-      <c r="F314" s="6">
-        <v>1</v>
-      </c>
-      <c r="G314" s="6">
-        <v>1</v>
-      </c>
-      <c r="H314" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="315" spans="5:8">
-      <c r="E315" s="20" t="s">
-        <v>336</v>
-      </c>
-      <c r="F315" s="6">
-        <v>1</v>
-      </c>
-      <c r="G315" s="6">
-        <v>1</v>
-      </c>
-      <c r="H315" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="316" spans="5:8">
-      <c r="E316" s="20" t="s">
-        <v>337</v>
-      </c>
-      <c r="F316" s="6">
-        <v>1</v>
-      </c>
-      <c r="G316" s="6">
-        <v>1</v>
-      </c>
-      <c r="H316" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="317" spans="5:8">
-      <c r="E317" s="20" t="s">
-        <v>338</v>
-      </c>
-      <c r="F317" s="6">
-        <v>1</v>
-      </c>
-      <c r="G317" s="6">
-        <v>1</v>
-      </c>
-      <c r="H317" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="318" spans="5:8">
-      <c r="E318" s="20" t="s">
-        <v>339</v>
-      </c>
-      <c r="F318" s="6">
-        <v>1</v>
-      </c>
-      <c r="G318" s="6">
-        <v>1</v>
-      </c>
-      <c r="H318" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="319" spans="5:8">
-      <c r="E319" s="20" t="s">
-        <v>340</v>
-      </c>
-      <c r="F319" s="6">
-        <v>1</v>
-      </c>
-      <c r="G319" s="6">
-        <v>1</v>
-      </c>
-      <c r="H319" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="320" spans="5:8">
-      <c r="E320" s="20" t="s">
-        <v>341</v>
-      </c>
-      <c r="F320" s="6">
-        <v>1</v>
-      </c>
-      <c r="G320" s="6">
-        <v>1</v>
-      </c>
-      <c r="H320" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="321" spans="5:8">
-      <c r="E321" s="20" t="s">
-        <v>342</v>
-      </c>
-      <c r="F321" s="6">
-        <v>1</v>
-      </c>
-      <c r="G321" s="6">
-        <v>1</v>
-      </c>
-      <c r="H321" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="322" spans="5:8">
-      <c r="E322" s="20" t="s">
-        <v>343</v>
-      </c>
-      <c r="F322" s="6">
-        <v>1</v>
-      </c>
-      <c r="G322" s="6">
-        <v>1</v>
-      </c>
-      <c r="H322" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="323" spans="5:8">
-      <c r="E323" s="20" t="s">
-        <v>344</v>
-      </c>
-      <c r="F323" s="6">
-        <v>1</v>
-      </c>
-      <c r="G323" s="6">
-        <v>1</v>
-      </c>
-      <c r="H323" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="324" spans="5:8">
-      <c r="E324" s="20" t="s">
-        <v>345</v>
-      </c>
-      <c r="F324" s="6">
-        <v>1</v>
-      </c>
-      <c r="G324" s="6">
-        <v>1</v>
-      </c>
-      <c r="H324" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="325" spans="5:8">
-      <c r="E325" s="20" t="s">
-        <v>346</v>
-      </c>
-      <c r="F325" s="6">
-        <v>1</v>
-      </c>
-      <c r="G325" s="6">
-        <v>1</v>
-      </c>
-      <c r="H325" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="326" spans="5:8">
-      <c r="E326" s="20" t="s">
-        <v>347</v>
-      </c>
-      <c r="F326" s="6">
-        <v>1</v>
-      </c>
-      <c r="G326" s="6">
-        <v>1</v>
-      </c>
-      <c r="H326" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="327" spans="5:8">
-      <c r="E327" s="20" t="s">
-        <v>348</v>
-      </c>
-      <c r="F327" s="6">
-        <v>1</v>
-      </c>
-      <c r="G327" s="6">
-        <v>1</v>
-      </c>
-      <c r="H327" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="328" spans="5:8">
-      <c r="E328" s="20" t="s">
-        <v>349</v>
-      </c>
-      <c r="F328" s="6">
-        <v>1</v>
-      </c>
-      <c r="G328" s="6">
-        <v>1</v>
-      </c>
-      <c r="H328" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="329" spans="5:8">
-      <c r="E329" s="20" t="s">
-        <v>350</v>
-      </c>
-      <c r="F329" s="6">
-        <v>1</v>
-      </c>
-      <c r="G329" s="6">
-        <v>1</v>
-      </c>
-      <c r="H329" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="330" spans="5:8">
-      <c r="E330" s="20" t="s">
-        <v>351</v>
-      </c>
-      <c r="F330" s="6">
-        <v>1</v>
-      </c>
-      <c r="G330" s="6">
-        <v>1</v>
-      </c>
-      <c r="H330" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="331" spans="5:8">
-      <c r="E331" s="20" t="s">
-        <v>352</v>
-      </c>
-      <c r="F331" s="6">
-        <v>1</v>
-      </c>
-      <c r="G331" s="6">
-        <v>1</v>
-      </c>
-      <c r="H331" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="332" spans="5:8">
-      <c r="E332" s="20" t="s">
-        <v>353</v>
-      </c>
-      <c r="F332" s="6">
-        <v>1</v>
-      </c>
-      <c r="G332" s="6">
-        <v>1</v>
-      </c>
-      <c r="H332" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="333" spans="5:8">
-      <c r="E333" s="20" t="s">
-        <v>354</v>
-      </c>
-      <c r="F333" s="6">
-        <v>1</v>
-      </c>
-      <c r="G333" s="6">
-        <v>1</v>
-      </c>
-      <c r="H333" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="334" spans="5:8">
-      <c r="E334" s="20" t="s">
-        <v>355</v>
-      </c>
-      <c r="F334" s="6">
-        <v>1</v>
-      </c>
-      <c r="G334" s="6">
-        <v>1</v>
-      </c>
-      <c r="H334" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="335" spans="5:8">
-      <c r="E335" s="20" t="s">
-        <v>356</v>
-      </c>
-      <c r="F335" s="6">
-        <v>1</v>
-      </c>
-      <c r="G335" s="6">
-        <v>1</v>
-      </c>
-      <c r="H335" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="336" ht="15.5" spans="2:8">
-      <c r="B336" s="3">
-        <v>1013</v>
-      </c>
-      <c r="C336" s="3">
-        <v>1</v>
-      </c>
-      <c r="D336" t="s">
-        <v>357</v>
-      </c>
-      <c r="E336" s="21" t="s">
-        <v>358</v>
-      </c>
-      <c r="F336" s="6">
-        <v>1</v>
-      </c>
-      <c r="G336" s="6">
-        <v>1</v>
-      </c>
-      <c r="H336" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="337" ht="15.5" spans="2:8">
-      <c r="B337" s="3">
-        <v>1014</v>
-      </c>
-      <c r="C337" s="3">
-        <v>1</v>
-      </c>
-      <c r="D337" t="s">
-        <v>357</v>
-      </c>
-      <c r="E337" s="21" t="s">
-        <v>359</v>
-      </c>
-      <c r="F337" s="6">
-        <v>1</v>
-      </c>
-      <c r="G337" s="6">
-        <v>1</v>
-      </c>
-      <c r="H337" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="338" ht="15.5" spans="2:8">
-      <c r="B338" s="3">
-        <v>1015</v>
-      </c>
-      <c r="C338" s="3">
-        <v>1</v>
-      </c>
-      <c r="D338" t="s">
-        <v>357</v>
-      </c>
-      <c r="E338" s="21" t="s">
-        <v>360</v>
-      </c>
-      <c r="F338" s="6">
-        <v>1</v>
-      </c>
-      <c r="G338" s="6">
-        <v>1</v>
-      </c>
-      <c r="H338" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="339" ht="15.5" spans="2:8">
-      <c r="B339" s="3">
-        <v>1016</v>
-      </c>
-      <c r="C339" s="3">
-        <v>1</v>
-      </c>
-      <c r="D339" t="s">
-        <v>357</v>
-      </c>
-      <c r="E339" s="21" t="s">
-        <v>361</v>
-      </c>
-      <c r="F339" s="6">
-        <v>1</v>
-      </c>
-      <c r="G339" s="6">
-        <v>1</v>
-      </c>
-      <c r="H339" s="6">
         <v>1</v>
       </c>
     </row>

--- a/Doc/ExcelConfig/Datas/dota/PoolConfig.xlsx
+++ b/Doc/ExcelConfig/Datas/dota/PoolConfig.xlsx
@@ -1677,7 +1677,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="31" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1724,10 +1724,8 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
@@ -2056,11 +2054,11 @@
   <dimension ref="A1:H312"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="3" topLeftCell="I204" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F235" sqref="F213:H235"/>
+      <selection pane="bottomRight" activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
@@ -2068,7 +2066,7 @@
     <col min="1" max="1" width="8.16666666666667" customWidth="1"/>
     <col min="2" max="2" width="17.25" style="3" customWidth="1"/>
     <col min="3" max="3" width="13.8333333333333" style="3" customWidth="1"/>
-    <col min="4" max="4" width="19.4166666666667" customWidth="1"/>
+    <col min="4" max="4" width="6.33333333333333" customWidth="1"/>
     <col min="5" max="5" width="31.4416666666667" customWidth="1"/>
     <col min="6" max="6" width="8.91666666666667" customWidth="1"/>
     <col min="7" max="7" width="10.25" customWidth="1"/>
@@ -4580,7 +4578,7 @@
       <c r="D145" t="s">
         <v>38</v>
       </c>
-      <c r="E145" s="20" t="s">
+      <c r="E145" s="18" t="s">
         <v>164</v>
       </c>
       <c r="F145" s="6">
@@ -4756,7 +4754,7 @@
       <c r="D155" t="s">
         <v>64</v>
       </c>
-      <c r="E155" s="21" t="s">
+      <c r="E155" s="20" t="s">
         <v>174</v>
       </c>
       <c r="F155" s="6">
@@ -4773,7 +4771,7 @@
       <c r="D156" t="s">
         <v>64</v>
       </c>
-      <c r="E156" s="21" t="s">
+      <c r="E156" s="20" t="s">
         <v>175</v>
       </c>
       <c r="F156" s="6">
@@ -4790,7 +4788,7 @@
       <c r="D157" t="s">
         <v>64</v>
       </c>
-      <c r="E157" s="21" t="s">
+      <c r="E157" s="20" t="s">
         <v>176</v>
       </c>
       <c r="F157" s="6">
@@ -4807,7 +4805,7 @@
       <c r="D158" t="s">
         <v>64</v>
       </c>
-      <c r="E158" s="21" t="s">
+      <c r="E158" s="20" t="s">
         <v>177</v>
       </c>
       <c r="F158" s="6">
@@ -4824,7 +4822,7 @@
       <c r="D159" t="s">
         <v>64</v>
       </c>
-      <c r="E159" s="21" t="s">
+      <c r="E159" s="20" t="s">
         <v>178</v>
       </c>
       <c r="F159" s="6">
@@ -4841,7 +4839,7 @@
       <c r="D160" t="s">
         <v>64</v>
       </c>
-      <c r="E160" s="21" t="s">
+      <c r="E160" s="20" t="s">
         <v>179</v>
       </c>
       <c r="F160" s="6">
@@ -4858,7 +4856,7 @@
       <c r="D161" t="s">
         <v>64</v>
       </c>
-      <c r="E161" s="21" t="s">
+      <c r="E161" s="20" t="s">
         <v>180</v>
       </c>
       <c r="F161" s="6">
@@ -4875,7 +4873,7 @@
       <c r="D162" t="s">
         <v>64</v>
       </c>
-      <c r="E162" s="21" t="s">
+      <c r="E162" s="20" t="s">
         <v>181</v>
       </c>
       <c r="F162" s="6">
@@ -4892,7 +4890,7 @@
       <c r="D163" t="s">
         <v>64</v>
       </c>
-      <c r="E163" s="21" t="s">
+      <c r="E163" s="20" t="s">
         <v>182</v>
       </c>
       <c r="F163" s="6">
@@ -4909,7 +4907,7 @@
       <c r="D164" t="s">
         <v>64</v>
       </c>
-      <c r="E164" s="21" t="s">
+      <c r="E164" s="20" t="s">
         <v>183</v>
       </c>
       <c r="F164" s="6">
@@ -4926,7 +4924,7 @@
       <c r="D165" t="s">
         <v>64</v>
       </c>
-      <c r="E165" s="21" t="s">
+      <c r="E165" s="20" t="s">
         <v>184</v>
       </c>
       <c r="F165" s="6">
@@ -4943,7 +4941,7 @@
       <c r="D166" t="s">
         <v>64</v>
       </c>
-      <c r="E166" s="21" t="s">
+      <c r="E166" s="20" t="s">
         <v>185</v>
       </c>
       <c r="F166" s="6">
@@ -4960,7 +4958,7 @@
       <c r="D167" t="s">
         <v>64</v>
       </c>
-      <c r="E167" s="21" t="s">
+      <c r="E167" s="20" t="s">
         <v>186</v>
       </c>
       <c r="F167" s="6">
@@ -4977,7 +4975,7 @@
       <c r="D168" t="s">
         <v>64</v>
       </c>
-      <c r="E168" s="21" t="s">
+      <c r="E168" s="20" t="s">
         <v>187</v>
       </c>
       <c r="F168" s="6">
@@ -4994,7 +4992,7 @@
       <c r="D169" t="s">
         <v>64</v>
       </c>
-      <c r="E169" s="21" t="s">
+      <c r="E169" s="20" t="s">
         <v>188</v>
       </c>
       <c r="F169" s="6">
@@ -5011,7 +5009,7 @@
       <c r="D170" t="s">
         <v>64</v>
       </c>
-      <c r="E170" s="21" t="s">
+      <c r="E170" s="20" t="s">
         <v>189</v>
       </c>
       <c r="F170" s="6">
@@ -5028,7 +5026,7 @@
       <c r="D171" t="s">
         <v>64</v>
       </c>
-      <c r="E171" s="21" t="s">
+      <c r="E171" s="20" t="s">
         <v>190</v>
       </c>
       <c r="F171" s="6">
@@ -5045,7 +5043,7 @@
       <c r="D172" t="s">
         <v>64</v>
       </c>
-      <c r="E172" s="21" t="s">
+      <c r="E172" s="20" t="s">
         <v>191</v>
       </c>
       <c r="F172" s="6">
@@ -5062,7 +5060,7 @@
       <c r="D173" t="s">
         <v>64</v>
       </c>
-      <c r="E173" s="21" t="s">
+      <c r="E173" s="20" t="s">
         <v>192</v>
       </c>
       <c r="F173" s="6">
@@ -5079,7 +5077,7 @@
       <c r="D174" t="s">
         <v>64</v>
       </c>
-      <c r="E174" s="21" t="s">
+      <c r="E174" s="20" t="s">
         <v>193</v>
       </c>
       <c r="F174" s="6">
@@ -5096,7 +5094,7 @@
       <c r="D175" t="s">
         <v>64</v>
       </c>
-      <c r="E175" s="21" t="s">
+      <c r="E175" s="20" t="s">
         <v>171</v>
       </c>
       <c r="F175" s="6">
@@ -5113,7 +5111,7 @@
       <c r="D176" t="s">
         <v>64</v>
       </c>
-      <c r="E176" s="21" t="s">
+      <c r="E176" s="20" t="s">
         <v>194</v>
       </c>
       <c r="F176" s="6">
@@ -5130,7 +5128,7 @@
       <c r="D177" t="s">
         <v>64</v>
       </c>
-      <c r="E177" s="21" t="s">
+      <c r="E177" s="20" t="s">
         <v>195</v>
       </c>
       <c r="F177" s="6">
@@ -5147,7 +5145,7 @@
       <c r="D178" t="s">
         <v>64</v>
       </c>
-      <c r="E178" s="21" t="s">
+      <c r="E178" s="20" t="s">
         <v>196</v>
       </c>
       <c r="F178" s="6">
@@ -5164,7 +5162,7 @@
       <c r="D179" t="s">
         <v>64</v>
       </c>
-      <c r="E179" s="21" t="s">
+      <c r="E179" s="20" t="s">
         <v>197</v>
       </c>
       <c r="F179" s="6">
@@ -5181,7 +5179,7 @@
       <c r="D180" t="s">
         <v>64</v>
       </c>
-      <c r="E180" s="21" t="s">
+      <c r="E180" s="20" t="s">
         <v>198</v>
       </c>
       <c r="F180" s="6">
@@ -5198,7 +5196,7 @@
       <c r="D181" t="s">
         <v>64</v>
       </c>
-      <c r="E181" s="21" t="s">
+      <c r="E181" s="20" t="s">
         <v>199</v>
       </c>
       <c r="F181" s="6">
@@ -5215,7 +5213,7 @@
       <c r="D182" t="s">
         <v>64</v>
       </c>
-      <c r="E182" s="21" t="s">
+      <c r="E182" s="20" t="s">
         <v>200</v>
       </c>
       <c r="F182" s="6">
@@ -5232,7 +5230,7 @@
       <c r="D183" t="s">
         <v>64</v>
       </c>
-      <c r="E183" s="21" t="s">
+      <c r="E183" s="20" t="s">
         <v>201</v>
       </c>
       <c r="F183" s="6">
@@ -5249,7 +5247,7 @@
       <c r="D184" t="s">
         <v>64</v>
       </c>
-      <c r="E184" s="21" t="s">
+      <c r="E184" s="20" t="s">
         <v>202</v>
       </c>
       <c r="F184" s="6">
@@ -5266,7 +5264,7 @@
       <c r="D185" t="s">
         <v>64</v>
       </c>
-      <c r="E185" s="21" t="s">
+      <c r="E185" s="20" t="s">
         <v>203</v>
       </c>
       <c r="F185" s="6">
@@ -5283,7 +5281,7 @@
       <c r="D186" t="s">
         <v>64</v>
       </c>
-      <c r="E186" s="21" t="s">
+      <c r="E186" s="20" t="s">
         <v>204</v>
       </c>
       <c r="F186" s="6">
@@ -5300,7 +5298,7 @@
       <c r="D187" t="s">
         <v>64</v>
       </c>
-      <c r="E187" s="21" t="s">
+      <c r="E187" s="20" t="s">
         <v>205</v>
       </c>
       <c r="F187" s="6">
@@ -5317,7 +5315,7 @@
       <c r="D188" t="s">
         <v>64</v>
       </c>
-      <c r="E188" s="21" t="s">
+      <c r="E188" s="20" t="s">
         <v>206</v>
       </c>
       <c r="F188" s="6">
@@ -5334,7 +5332,7 @@
       <c r="D189" t="s">
         <v>64</v>
       </c>
-      <c r="E189" s="21" t="s">
+      <c r="E189" s="20" t="s">
         <v>207</v>
       </c>
       <c r="F189" s="6">
@@ -5351,7 +5349,7 @@
       <c r="D190" t="s">
         <v>64</v>
       </c>
-      <c r="E190" s="21" t="s">
+      <c r="E190" s="20" t="s">
         <v>208</v>
       </c>
       <c r="F190" s="6">
@@ -5368,7 +5366,7 @@
       <c r="D191" t="s">
         <v>64</v>
       </c>
-      <c r="E191" s="21" t="s">
+      <c r="E191" s="20" t="s">
         <v>209</v>
       </c>
       <c r="F191" s="6">
@@ -5385,7 +5383,7 @@
       <c r="D192" t="s">
         <v>64</v>
       </c>
-      <c r="E192" s="21" t="s">
+      <c r="E192" s="20" t="s">
         <v>210</v>
       </c>
       <c r="F192" s="6">
@@ -5402,7 +5400,7 @@
       <c r="D193" t="s">
         <v>64</v>
       </c>
-      <c r="E193" s="21" t="s">
+      <c r="E193" s="20" t="s">
         <v>211</v>
       </c>
       <c r="F193" s="6">
@@ -5419,7 +5417,7 @@
       <c r="D194" t="s">
         <v>64</v>
       </c>
-      <c r="E194" s="21" t="s">
+      <c r="E194" s="20" t="s">
         <v>212</v>
       </c>
       <c r="F194" s="6">
@@ -5436,7 +5434,7 @@
       <c r="D195" t="s">
         <v>64</v>
       </c>
-      <c r="E195" s="21" t="s">
+      <c r="E195" s="20" t="s">
         <v>213</v>
       </c>
       <c r="F195" s="6">
@@ -5453,7 +5451,7 @@
       <c r="D196" t="s">
         <v>64</v>
       </c>
-      <c r="E196" s="21" t="s">
+      <c r="E196" s="20" t="s">
         <v>214</v>
       </c>
       <c r="F196" s="6">
@@ -5470,7 +5468,7 @@
       <c r="D197" t="s">
         <v>64</v>
       </c>
-      <c r="E197" s="21" t="s">
+      <c r="E197" s="20" t="s">
         <v>215</v>
       </c>
       <c r="F197" s="6">
@@ -5487,7 +5485,7 @@
       <c r="D198" t="s">
         <v>64</v>
       </c>
-      <c r="E198" s="21" t="s">
+      <c r="E198" s="20" t="s">
         <v>216</v>
       </c>
       <c r="F198" s="6">
@@ -5504,7 +5502,7 @@
       <c r="D199" t="s">
         <v>64</v>
       </c>
-      <c r="E199" s="21" t="s">
+      <c r="E199" s="20" t="s">
         <v>217</v>
       </c>
       <c r="F199" s="6">
@@ -5521,7 +5519,7 @@
       <c r="D200" t="s">
         <v>64</v>
       </c>
-      <c r="E200" s="21" t="s">
+      <c r="E200" s="20" t="s">
         <v>218</v>
       </c>
       <c r="F200" s="6">
@@ -5538,7 +5536,7 @@
       <c r="D201" t="s">
         <v>64</v>
       </c>
-      <c r="E201" s="21" t="s">
+      <c r="E201" s="20" t="s">
         <v>219</v>
       </c>
       <c r="F201" s="6">
@@ -5555,7 +5553,7 @@
       <c r="D202" t="s">
         <v>64</v>
       </c>
-      <c r="E202" s="21" t="s">
+      <c r="E202" s="20" t="s">
         <v>220</v>
       </c>
       <c r="F202" s="6">
@@ -5572,7 +5570,7 @@
       <c r="D203" t="s">
         <v>64</v>
       </c>
-      <c r="E203" s="21" t="s">
+      <c r="E203" s="20" t="s">
         <v>221</v>
       </c>
       <c r="F203" s="6">
@@ -5589,7 +5587,7 @@
       <c r="D204" t="s">
         <v>64</v>
       </c>
-      <c r="E204" s="21" t="s">
+      <c r="E204" s="20" t="s">
         <v>222</v>
       </c>
       <c r="F204" s="6">
@@ -5606,7 +5604,7 @@
       <c r="D205" t="s">
         <v>64</v>
       </c>
-      <c r="E205" s="21" t="s">
+      <c r="E205" s="20" t="s">
         <v>223</v>
       </c>
       <c r="F205" s="6">
@@ -5623,7 +5621,7 @@
       <c r="D206" t="s">
         <v>64</v>
       </c>
-      <c r="E206" s="21" t="s">
+      <c r="E206" s="20" t="s">
         <v>224</v>
       </c>
       <c r="F206" s="6">
@@ -5640,7 +5638,7 @@
       <c r="D207" t="s">
         <v>64</v>
       </c>
-      <c r="E207" s="21" t="s">
+      <c r="E207" s="20" t="s">
         <v>225</v>
       </c>
       <c r="F207" s="6">
@@ -5657,7 +5655,7 @@
       <c r="D208" t="s">
         <v>64</v>
       </c>
-      <c r="E208" s="22" t="s">
+      <c r="E208" s="21" t="s">
         <v>226</v>
       </c>
       <c r="F208" s="6">
@@ -5680,7 +5678,7 @@
       <c r="D209" t="s">
         <v>102</v>
       </c>
-      <c r="E209" s="23" t="s">
+      <c r="E209" s="22" t="s">
         <v>227</v>
       </c>
       <c r="F209" s="6">
@@ -5697,7 +5695,7 @@
       <c r="D210" t="s">
         <v>102</v>
       </c>
-      <c r="E210" s="23" t="s">
+      <c r="E210" s="22" t="s">
         <v>228</v>
       </c>
       <c r="F210" s="6">
@@ -5714,7 +5712,7 @@
       <c r="D211" t="s">
         <v>102</v>
       </c>
-      <c r="E211" s="23" t="s">
+      <c r="E211" s="22" t="s">
         <v>229</v>
       </c>
       <c r="F211" s="6">
@@ -5731,7 +5729,7 @@
       <c r="D212" t="s">
         <v>102</v>
       </c>
-      <c r="E212" s="23" t="s">
+      <c r="E212" s="22" t="s">
         <v>230</v>
       </c>
       <c r="F212" s="6">
@@ -5748,7 +5746,7 @@
       <c r="D213" t="s">
         <v>102</v>
       </c>
-      <c r="E213" s="23" t="s">
+      <c r="E213" s="22" t="s">
         <v>231</v>
       </c>
       <c r="F213" s="6">
@@ -5765,7 +5763,7 @@
       <c r="D214" t="s">
         <v>102</v>
       </c>
-      <c r="E214" s="23" t="s">
+      <c r="E214" s="22" t="s">
         <v>232</v>
       </c>
       <c r="F214" s="6">
@@ -5782,7 +5780,7 @@
       <c r="D215" t="s">
         <v>102</v>
       </c>
-      <c r="E215" s="23" t="s">
+      <c r="E215" s="22" t="s">
         <v>233</v>
       </c>
       <c r="F215" s="6">
@@ -5799,7 +5797,7 @@
       <c r="D216" t="s">
         <v>102</v>
       </c>
-      <c r="E216" s="23" t="s">
+      <c r="E216" s="22" t="s">
         <v>234</v>
       </c>
       <c r="F216" s="6">
@@ -5816,7 +5814,7 @@
       <c r="D217" t="s">
         <v>102</v>
       </c>
-      <c r="E217" s="23" t="s">
+      <c r="E217" s="22" t="s">
         <v>235</v>
       </c>
       <c r="F217" s="6">
@@ -5833,7 +5831,7 @@
       <c r="D218" t="s">
         <v>102</v>
       </c>
-      <c r="E218" s="23" t="s">
+      <c r="E218" s="22" t="s">
         <v>236</v>
       </c>
       <c r="F218" s="6">
@@ -5850,7 +5848,7 @@
       <c r="D219" t="s">
         <v>102</v>
       </c>
-      <c r="E219" s="23" t="s">
+      <c r="E219" s="22" t="s">
         <v>237</v>
       </c>
       <c r="F219" s="6">
@@ -5867,7 +5865,7 @@
       <c r="D220" t="s">
         <v>102</v>
       </c>
-      <c r="E220" s="23" t="s">
+      <c r="E220" s="22" t="s">
         <v>238</v>
       </c>
       <c r="F220" s="6">
@@ -5884,7 +5882,7 @@
       <c r="D221" t="s">
         <v>102</v>
       </c>
-      <c r="E221" s="23" t="s">
+      <c r="E221" s="22" t="s">
         <v>239</v>
       </c>
       <c r="F221" s="6">
@@ -5901,7 +5899,7 @@
       <c r="D222" t="s">
         <v>102</v>
       </c>
-      <c r="E222" s="23" t="s">
+      <c r="E222" s="22" t="s">
         <v>240</v>
       </c>
       <c r="F222" s="6">
@@ -5918,7 +5916,7 @@
       <c r="D223" t="s">
         <v>102</v>
       </c>
-      <c r="E223" s="23" t="s">
+      <c r="E223" s="22" t="s">
         <v>241</v>
       </c>
       <c r="F223" s="6">
@@ -5935,7 +5933,7 @@
       <c r="D224" t="s">
         <v>102</v>
       </c>
-      <c r="E224" s="23" t="s">
+      <c r="E224" s="22" t="s">
         <v>242</v>
       </c>
       <c r="F224" s="6">
@@ -5952,7 +5950,7 @@
       <c r="D225" t="s">
         <v>102</v>
       </c>
-      <c r="E225" s="23" t="s">
+      <c r="E225" s="22" t="s">
         <v>243</v>
       </c>
       <c r="F225" s="6">
@@ -5969,7 +5967,7 @@
       <c r="D226" t="s">
         <v>102</v>
       </c>
-      <c r="E226" s="23" t="s">
+      <c r="E226" s="22" t="s">
         <v>244</v>
       </c>
       <c r="F226" s="6">
@@ -5986,7 +5984,7 @@
       <c r="D227" t="s">
         <v>102</v>
       </c>
-      <c r="E227" s="23" t="s">
+      <c r="E227" s="22" t="s">
         <v>245</v>
       </c>
       <c r="F227" s="6">
@@ -6003,7 +6001,7 @@
       <c r="D228" t="s">
         <v>102</v>
       </c>
-      <c r="E228" s="23" t="s">
+      <c r="E228" s="22" t="s">
         <v>246</v>
       </c>
       <c r="F228" s="6">
@@ -6020,7 +6018,7 @@
       <c r="D229" t="s">
         <v>102</v>
       </c>
-      <c r="E229" s="23" t="s">
+      <c r="E229" s="22" t="s">
         <v>247</v>
       </c>
       <c r="F229" s="6">
@@ -6037,7 +6035,7 @@
       <c r="D230" t="s">
         <v>102</v>
       </c>
-      <c r="E230" s="23" t="s">
+      <c r="E230" s="22" t="s">
         <v>248</v>
       </c>
       <c r="F230" s="6">
@@ -6054,7 +6052,7 @@
       <c r="D231" t="s">
         <v>102</v>
       </c>
-      <c r="E231" s="23" t="s">
+      <c r="E231" s="22" t="s">
         <v>249</v>
       </c>
       <c r="F231" s="6">
@@ -6071,7 +6069,7 @@
       <c r="D232" t="s">
         <v>102</v>
       </c>
-      <c r="E232" s="24" t="s">
+      <c r="E232" s="22" t="s">
         <v>250</v>
       </c>
       <c r="F232" s="6">
@@ -6088,7 +6086,7 @@
       <c r="D233" t="s">
         <v>102</v>
       </c>
-      <c r="E233" s="23" t="s">
+      <c r="E233" s="22" t="s">
         <v>251</v>
       </c>
       <c r="F233" s="6">
@@ -6105,7 +6103,7 @@
       <c r="D234" t="s">
         <v>102</v>
       </c>
-      <c r="E234" s="23" t="s">
+      <c r="E234" s="22" t="s">
         <v>252</v>
       </c>
       <c r="F234" s="6">
@@ -6122,7 +6120,7 @@
       <c r="D235" t="s">
         <v>102</v>
       </c>
-      <c r="E235" s="23" t="s">
+      <c r="E235" s="22" t="s">
         <v>253</v>
       </c>
       <c r="F235" s="6">
@@ -6139,7 +6137,7 @@
       <c r="D236" t="s">
         <v>102</v>
       </c>
-      <c r="E236" s="23" t="s">
+      <c r="E236" s="22" t="s">
         <v>254</v>
       </c>
       <c r="F236" s="6">
@@ -6162,7 +6160,7 @@
       <c r="D237" t="s">
         <v>255</v>
       </c>
-      <c r="E237" s="25" t="s">
+      <c r="E237" s="23" t="s">
         <v>256</v>
       </c>
       <c r="F237" s="6">
@@ -6176,7 +6174,7 @@
       </c>
     </row>
     <row r="238" ht="15.5" spans="5:8">
-      <c r="E238" s="25" t="s">
+      <c r="E238" s="23" t="s">
         <v>257</v>
       </c>
       <c r="F238" s="6">
@@ -6190,7 +6188,7 @@
       </c>
     </row>
     <row r="239" ht="15.5" spans="5:8">
-      <c r="E239" s="25" t="s">
+      <c r="E239" s="23" t="s">
         <v>258</v>
       </c>
       <c r="F239" s="6">
@@ -6204,7 +6202,7 @@
       </c>
     </row>
     <row r="240" ht="15.5" spans="5:8">
-      <c r="E240" s="25" t="s">
+      <c r="E240" s="23" t="s">
         <v>259</v>
       </c>
       <c r="F240" s="6">
@@ -6227,7 +6225,7 @@
       <c r="D241" t="s">
         <v>260</v>
       </c>
-      <c r="E241" s="25" t="s">
+      <c r="E241" s="23" t="s">
         <v>261</v>
       </c>
       <c r="F241" s="6">
@@ -6241,7 +6239,7 @@
       </c>
     </row>
     <row r="242" ht="15.5" spans="5:8">
-      <c r="E242" s="25" t="s">
+      <c r="E242" s="23" t="s">
         <v>262</v>
       </c>
       <c r="F242" s="6">
@@ -6255,7 +6253,7 @@
       </c>
     </row>
     <row r="243" ht="15.5" spans="5:8">
-      <c r="E243" s="25" t="s">
+      <c r="E243" s="23" t="s">
         <v>259</v>
       </c>
       <c r="F243" s="6">
@@ -6269,7 +6267,7 @@
       </c>
     </row>
     <row r="244" ht="15.5" spans="5:8">
-      <c r="E244" s="25" t="s">
+      <c r="E244" s="23" t="s">
         <v>263</v>
       </c>
       <c r="F244" s="6">
@@ -6283,7 +6281,7 @@
       </c>
     </row>
     <row r="245" ht="15.5" spans="5:8">
-      <c r="E245" s="25" t="s">
+      <c r="E245" s="23" t="s">
         <v>264</v>
       </c>
       <c r="F245" s="6">
@@ -6297,7 +6295,7 @@
       </c>
     </row>
     <row r="246" ht="15.5" spans="5:8">
-      <c r="E246" s="25" t="s">
+      <c r="E246" s="23" t="s">
         <v>265</v>
       </c>
       <c r="F246" s="6">
@@ -6311,7 +6309,7 @@
       </c>
     </row>
     <row r="247" ht="15.5" spans="5:8">
-      <c r="E247" s="25" t="s">
+      <c r="E247" s="23" t="s">
         <v>266</v>
       </c>
       <c r="F247" s="6">
@@ -6325,7 +6323,7 @@
       </c>
     </row>
     <row r="248" ht="15.5" spans="5:8">
-      <c r="E248" s="25" t="s">
+      <c r="E248" s="23" t="s">
         <v>267</v>
       </c>
       <c r="F248" s="6">
@@ -6348,7 +6346,7 @@
       <c r="D249" t="s">
         <v>268</v>
       </c>
-      <c r="E249" s="25" t="s">
+      <c r="E249" s="23" t="s">
         <v>269</v>
       </c>
       <c r="F249" s="6">
@@ -6362,7 +6360,7 @@
       </c>
     </row>
     <row r="250" ht="15.5" spans="5:8">
-      <c r="E250" s="25" t="s">
+      <c r="E250" s="23" t="s">
         <v>270</v>
       </c>
       <c r="F250" s="6">
@@ -6376,7 +6374,7 @@
       </c>
     </row>
     <row r="251" ht="15.5" spans="5:8">
-      <c r="E251" s="25" t="s">
+      <c r="E251" s="23" t="s">
         <v>267</v>
       </c>
       <c r="F251" s="6">
@@ -6390,7 +6388,7 @@
       </c>
     </row>
     <row r="252" ht="15.5" spans="5:8">
-      <c r="E252" s="25" t="s">
+      <c r="E252" s="23" t="s">
         <v>271</v>
       </c>
       <c r="F252" s="6">
@@ -6404,7 +6402,7 @@
       </c>
     </row>
     <row r="253" ht="15.5" spans="5:8">
-      <c r="E253" s="25" t="s">
+      <c r="E253" s="23" t="s">
         <v>272</v>
       </c>
       <c r="F253" s="6">
@@ -6427,7 +6425,7 @@
       <c r="D254" t="s">
         <v>273</v>
       </c>
-      <c r="E254" s="26" t="s">
+      <c r="E254" s="24" t="s">
         <v>274</v>
       </c>
       <c r="F254" s="6">
@@ -6441,7 +6439,7 @@
       </c>
     </row>
     <row r="255" spans="5:8">
-      <c r="E255" s="26" t="s">
+      <c r="E255" s="24" t="s">
         <v>275</v>
       </c>
       <c r="F255" s="6">
@@ -6455,7 +6453,7 @@
       </c>
     </row>
     <row r="256" spans="5:8">
-      <c r="E256" s="26" t="s">
+      <c r="E256" s="24" t="s">
         <v>276</v>
       </c>
       <c r="F256" s="6">
@@ -6469,7 +6467,7 @@
       </c>
     </row>
     <row r="257" spans="5:8">
-      <c r="E257" s="26" t="s">
+      <c r="E257" s="24" t="s">
         <v>277</v>
       </c>
       <c r="F257" s="6">
@@ -6483,7 +6481,7 @@
       </c>
     </row>
     <row r="258" spans="5:8">
-      <c r="E258" s="26" t="s">
+      <c r="E258" s="24" t="s">
         <v>278</v>
       </c>
       <c r="F258" s="6">
@@ -6497,7 +6495,7 @@
       </c>
     </row>
     <row r="259" spans="5:8">
-      <c r="E259" s="26" t="s">
+      <c r="E259" s="24" t="s">
         <v>279</v>
       </c>
       <c r="F259" s="6">
@@ -6511,7 +6509,7 @@
       </c>
     </row>
     <row r="260" spans="5:8">
-      <c r="E260" s="26" t="s">
+      <c r="E260" s="24" t="s">
         <v>280</v>
       </c>
       <c r="F260" s="6">
@@ -6525,7 +6523,7 @@
       </c>
     </row>
     <row r="261" spans="5:8">
-      <c r="E261" s="26" t="s">
+      <c r="E261" s="24" t="s">
         <v>281</v>
       </c>
       <c r="F261" s="6">
@@ -6539,7 +6537,7 @@
       </c>
     </row>
     <row r="262" spans="5:8">
-      <c r="E262" s="26" t="s">
+      <c r="E262" s="24" t="s">
         <v>282</v>
       </c>
       <c r="F262" s="6">
@@ -6553,7 +6551,7 @@
       </c>
     </row>
     <row r="263" spans="5:8">
-      <c r="E263" s="26" t="s">
+      <c r="E263" s="24" t="s">
         <v>283</v>
       </c>
       <c r="F263" s="6">
@@ -6567,7 +6565,7 @@
       </c>
     </row>
     <row r="264" spans="5:8">
-      <c r="E264" s="26" t="s">
+      <c r="E264" s="24" t="s">
         <v>284</v>
       </c>
       <c r="F264" s="6">
@@ -6581,7 +6579,7 @@
       </c>
     </row>
     <row r="265" spans="5:8">
-      <c r="E265" s="26" t="s">
+      <c r="E265" s="24" t="s">
         <v>285</v>
       </c>
       <c r="F265" s="6">
@@ -6595,7 +6593,7 @@
       </c>
     </row>
     <row r="266" spans="5:8">
-      <c r="E266" s="26" t="s">
+      <c r="E266" s="24" t="s">
         <v>286</v>
       </c>
       <c r="F266" s="6">
@@ -6609,7 +6607,7 @@
       </c>
     </row>
     <row r="267" spans="5:8">
-      <c r="E267" s="26" t="s">
+      <c r="E267" s="24" t="s">
         <v>287</v>
       </c>
       <c r="F267" s="6">
@@ -6623,7 +6621,7 @@
       </c>
     </row>
     <row r="268" spans="5:8">
-      <c r="E268" s="26" t="s">
+      <c r="E268" s="24" t="s">
         <v>288</v>
       </c>
       <c r="F268" s="6">
@@ -6637,7 +6635,7 @@
       </c>
     </row>
     <row r="269" spans="5:8">
-      <c r="E269" s="26" t="s">
+      <c r="E269" s="24" t="s">
         <v>289</v>
       </c>
       <c r="F269" s="6">
@@ -6651,7 +6649,7 @@
       </c>
     </row>
     <row r="270" spans="5:8">
-      <c r="E270" s="26" t="s">
+      <c r="E270" s="24" t="s">
         <v>290</v>
       </c>
       <c r="F270" s="6">
@@ -6665,7 +6663,7 @@
       </c>
     </row>
     <row r="271" spans="5:8">
-      <c r="E271" s="26" t="s">
+      <c r="E271" s="24" t="s">
         <v>291</v>
       </c>
       <c r="F271" s="6">
@@ -6679,7 +6677,7 @@
       </c>
     </row>
     <row r="272" spans="5:8">
-      <c r="E272" s="26" t="s">
+      <c r="E272" s="24" t="s">
         <v>292</v>
       </c>
       <c r="F272" s="6">
@@ -6693,7 +6691,7 @@
       </c>
     </row>
     <row r="273" spans="5:8">
-      <c r="E273" s="26" t="s">
+      <c r="E273" s="24" t="s">
         <v>293</v>
       </c>
       <c r="F273" s="6">
@@ -6707,7 +6705,7 @@
       </c>
     </row>
     <row r="274" spans="5:8">
-      <c r="E274" s="26" t="s">
+      <c r="E274" s="24" t="s">
         <v>294</v>
       </c>
       <c r="F274" s="6">
@@ -6721,7 +6719,7 @@
       </c>
     </row>
     <row r="275" spans="5:8">
-      <c r="E275" s="26" t="s">
+      <c r="E275" s="24" t="s">
         <v>295</v>
       </c>
       <c r="F275" s="6">
@@ -6735,7 +6733,7 @@
       </c>
     </row>
     <row r="276" spans="5:8">
-      <c r="E276" s="26" t="s">
+      <c r="E276" s="24" t="s">
         <v>296</v>
       </c>
       <c r="F276" s="6">
@@ -6749,7 +6747,7 @@
       </c>
     </row>
     <row r="277" spans="5:8">
-      <c r="E277" s="26" t="s">
+      <c r="E277" s="24" t="s">
         <v>297</v>
       </c>
       <c r="F277" s="6">
@@ -6763,7 +6761,7 @@
       </c>
     </row>
     <row r="278" spans="5:8">
-      <c r="E278" s="26" t="s">
+      <c r="E278" s="24" t="s">
         <v>298</v>
       </c>
       <c r="F278" s="6">
@@ -6777,7 +6775,7 @@
       </c>
     </row>
     <row r="279" spans="5:8">
-      <c r="E279" s="26" t="s">
+      <c r="E279" s="24" t="s">
         <v>299</v>
       </c>
       <c r="F279" s="6">
@@ -6791,7 +6789,7 @@
       </c>
     </row>
     <row r="280" spans="5:8">
-      <c r="E280" s="26" t="s">
+      <c r="E280" s="24" t="s">
         <v>300</v>
       </c>
       <c r="F280" s="6">
@@ -6805,7 +6803,7 @@
       </c>
     </row>
     <row r="281" spans="5:8">
-      <c r="E281" s="26" t="s">
+      <c r="E281" s="24" t="s">
         <v>301</v>
       </c>
       <c r="F281" s="6">
@@ -6819,7 +6817,7 @@
       </c>
     </row>
     <row r="282" spans="5:8">
-      <c r="E282" s="26" t="s">
+      <c r="E282" s="24" t="s">
         <v>302</v>
       </c>
       <c r="F282" s="6">
@@ -6833,7 +6831,7 @@
       </c>
     </row>
     <row r="283" spans="5:8">
-      <c r="E283" s="26" t="s">
+      <c r="E283" s="24" t="s">
         <v>303</v>
       </c>
       <c r="F283" s="6">
@@ -6847,7 +6845,7 @@
       </c>
     </row>
     <row r="284" spans="5:8">
-      <c r="E284" s="26" t="s">
+      <c r="E284" s="24" t="s">
         <v>304</v>
       </c>
       <c r="F284" s="6">
@@ -6861,7 +6859,7 @@
       </c>
     </row>
     <row r="285" spans="5:8">
-      <c r="E285" s="26" t="s">
+      <c r="E285" s="24" t="s">
         <v>305</v>
       </c>
       <c r="F285" s="6">
@@ -6875,7 +6873,7 @@
       </c>
     </row>
     <row r="286" spans="5:8">
-      <c r="E286" s="26" t="s">
+      <c r="E286" s="24" t="s">
         <v>306</v>
       </c>
       <c r="F286" s="6">
@@ -6889,7 +6887,7 @@
       </c>
     </row>
     <row r="287" spans="5:8">
-      <c r="E287" s="26" t="s">
+      <c r="E287" s="24" t="s">
         <v>307</v>
       </c>
       <c r="F287" s="6">
@@ -6903,7 +6901,7 @@
       </c>
     </row>
     <row r="288" spans="5:8">
-      <c r="E288" s="26" t="s">
+      <c r="E288" s="24" t="s">
         <v>308</v>
       </c>
       <c r="F288" s="6">
@@ -6917,7 +6915,7 @@
       </c>
     </row>
     <row r="289" spans="5:8">
-      <c r="E289" s="26" t="s">
+      <c r="E289" s="24" t="s">
         <v>309</v>
       </c>
       <c r="F289" s="6">
@@ -6931,7 +6929,7 @@
       </c>
     </row>
     <row r="290" spans="5:8">
-      <c r="E290" s="26" t="s">
+      <c r="E290" s="24" t="s">
         <v>310</v>
       </c>
       <c r="F290" s="6">
@@ -6945,7 +6943,7 @@
       </c>
     </row>
     <row r="291" spans="5:8">
-      <c r="E291" s="26" t="s">
+      <c r="E291" s="24" t="s">
         <v>311</v>
       </c>
       <c r="F291" s="6">
@@ -6959,7 +6957,7 @@
       </c>
     </row>
     <row r="292" spans="5:8">
-      <c r="E292" s="26" t="s">
+      <c r="E292" s="24" t="s">
         <v>312</v>
       </c>
       <c r="F292" s="6">
@@ -6973,7 +6971,7 @@
       </c>
     </row>
     <row r="293" spans="5:8">
-      <c r="E293" s="26" t="s">
+      <c r="E293" s="24" t="s">
         <v>313</v>
       </c>
       <c r="F293" s="6">
@@ -6987,7 +6985,7 @@
       </c>
     </row>
     <row r="294" spans="5:8">
-      <c r="E294" s="26" t="s">
+      <c r="E294" s="24" t="s">
         <v>314</v>
       </c>
       <c r="F294" s="6">
@@ -7001,7 +6999,7 @@
       </c>
     </row>
     <row r="295" spans="5:8">
-      <c r="E295" s="26" t="s">
+      <c r="E295" s="24" t="s">
         <v>315</v>
       </c>
       <c r="F295" s="6">
@@ -7015,7 +7013,7 @@
       </c>
     </row>
     <row r="296" spans="5:8">
-      <c r="E296" s="26" t="s">
+      <c r="E296" s="24" t="s">
         <v>316</v>
       </c>
       <c r="F296" s="6">
@@ -7029,7 +7027,7 @@
       </c>
     </row>
     <row r="297" spans="5:8">
-      <c r="E297" s="26" t="s">
+      <c r="E297" s="24" t="s">
         <v>317</v>
       </c>
       <c r="F297" s="6">
@@ -7043,7 +7041,7 @@
       </c>
     </row>
     <row r="298" spans="5:8">
-      <c r="E298" s="26" t="s">
+      <c r="E298" s="24" t="s">
         <v>318</v>
       </c>
       <c r="F298" s="6">
@@ -7057,7 +7055,7 @@
       </c>
     </row>
     <row r="299" spans="5:8">
-      <c r="E299" s="26" t="s">
+      <c r="E299" s="24" t="s">
         <v>319</v>
       </c>
       <c r="F299" s="6">
@@ -7071,7 +7069,7 @@
       </c>
     </row>
     <row r="300" spans="5:8">
-      <c r="E300" s="26" t="s">
+      <c r="E300" s="24" t="s">
         <v>320</v>
       </c>
       <c r="F300" s="6">
@@ -7085,7 +7083,7 @@
       </c>
     </row>
     <row r="301" spans="5:8">
-      <c r="E301" s="26" t="s">
+      <c r="E301" s="24" t="s">
         <v>321</v>
       </c>
       <c r="F301" s="6">
@@ -7099,7 +7097,7 @@
       </c>
     </row>
     <row r="302" spans="5:8">
-      <c r="E302" s="26" t="s">
+      <c r="E302" s="24" t="s">
         <v>322</v>
       </c>
       <c r="F302" s="6">
@@ -7113,7 +7111,7 @@
       </c>
     </row>
     <row r="303" spans="5:8">
-      <c r="E303" s="26" t="s">
+      <c r="E303" s="24" t="s">
         <v>323</v>
       </c>
       <c r="F303" s="6">
@@ -7127,7 +7125,7 @@
       </c>
     </row>
     <row r="304" spans="5:8">
-      <c r="E304" s="26" t="s">
+      <c r="E304" s="24" t="s">
         <v>324</v>
       </c>
       <c r="F304" s="6">
@@ -7141,7 +7139,7 @@
       </c>
     </row>
     <row r="305" spans="5:8">
-      <c r="E305" s="26" t="s">
+      <c r="E305" s="24" t="s">
         <v>325</v>
       </c>
       <c r="F305" s="6">
@@ -7155,7 +7153,7 @@
       </c>
     </row>
     <row r="306" spans="5:8">
-      <c r="E306" s="26" t="s">
+      <c r="E306" s="24" t="s">
         <v>326</v>
       </c>
       <c r="F306" s="6">
@@ -7169,7 +7167,7 @@
       </c>
     </row>
     <row r="307" spans="5:8">
-      <c r="E307" s="26" t="s">
+      <c r="E307" s="24" t="s">
         <v>327</v>
       </c>
       <c r="F307" s="6">
@@ -7183,7 +7181,7 @@
       </c>
     </row>
     <row r="308" spans="5:8">
-      <c r="E308" s="26" t="s">
+      <c r="E308" s="24" t="s">
         <v>328</v>
       </c>
       <c r="F308" s="6">
@@ -7206,7 +7204,7 @@
       <c r="D309" t="s">
         <v>329</v>
       </c>
-      <c r="E309" s="25" t="s">
+      <c r="E309" s="23" t="s">
         <v>330</v>
       </c>
       <c r="F309" s="6">
@@ -7229,7 +7227,7 @@
       <c r="D310" t="s">
         <v>329</v>
       </c>
-      <c r="E310" s="25" t="s">
+      <c r="E310" s="23" t="s">
         <v>331</v>
       </c>
       <c r="F310" s="6">
@@ -7252,7 +7250,7 @@
       <c r="D311" t="s">
         <v>329</v>
       </c>
-      <c r="E311" s="25" t="s">
+      <c r="E311" s="23" t="s">
         <v>332</v>
       </c>
       <c r="F311" s="6">
@@ -7275,7 +7273,7 @@
       <c r="D312" t="s">
         <v>329</v>
       </c>
-      <c r="E312" s="25" t="s">
+      <c r="E312" s="23" t="s">
         <v>333</v>
       </c>
       <c r="F312" s="6">

--- a/Doc/ExcelConfig/Datas/dota/PoolConfig.xlsx
+++ b/Doc/ExcelConfig/Datas/dota/PoolConfig.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="334">
   <si>
     <t>##</t>
   </si>
@@ -2051,14 +2051,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H312"/>
+  <dimension ref="A1:H329"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="3" topLeftCell="I304" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L10" sqref="L10"/>
+      <selection pane="bottomRight" activeCell="D313" sqref="D313"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
@@ -2066,7 +2066,7 @@
     <col min="1" max="1" width="8.16666666666667" customWidth="1"/>
     <col min="2" max="2" width="17.25" style="3" customWidth="1"/>
     <col min="3" max="3" width="13.8333333333333" style="3" customWidth="1"/>
-    <col min="4" max="4" width="6.33333333333333" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
     <col min="5" max="5" width="31.4416666666667" customWidth="1"/>
     <col min="6" max="6" width="8.91666666666667" customWidth="1"/>
     <col min="7" max="7" width="10.25" customWidth="1"/>
@@ -7283,6 +7283,271 @@
         <v>1</v>
       </c>
       <c r="H312" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" ht="15.5" spans="2:8">
+      <c r="B313" s="3">
+        <v>1021</v>
+      </c>
+      <c r="C313" s="3">
+        <v>1</v>
+      </c>
+      <c r="D313" t="s">
+        <v>255</v>
+      </c>
+      <c r="E313" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="F313" s="6">
+        <v>1</v>
+      </c>
+      <c r="G313" s="6">
+        <v>1</v>
+      </c>
+      <c r="H313" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" ht="15.5" spans="5:8">
+      <c r="E314" s="23" t="s">
+        <v>257</v>
+      </c>
+      <c r="F314" s="6">
+        <v>1</v>
+      </c>
+      <c r="G314" s="6">
+        <v>1</v>
+      </c>
+      <c r="H314" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" ht="15.5" spans="5:8">
+      <c r="E315" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="F315" s="6">
+        <v>1</v>
+      </c>
+      <c r="G315" s="6">
+        <v>1</v>
+      </c>
+      <c r="H315" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" ht="15.5" spans="5:8">
+      <c r="E316" s="23" t="s">
+        <v>259</v>
+      </c>
+      <c r="F316" s="6">
+        <v>1</v>
+      </c>
+      <c r="G316" s="6">
+        <v>1</v>
+      </c>
+      <c r="H316" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" ht="15.5" spans="2:8">
+      <c r="B317" s="3">
+        <v>1022</v>
+      </c>
+      <c r="C317" s="3">
+        <v>1</v>
+      </c>
+      <c r="D317" t="s">
+        <v>260</v>
+      </c>
+      <c r="E317" s="23" t="s">
+        <v>261</v>
+      </c>
+      <c r="F317" s="6">
+        <v>1</v>
+      </c>
+      <c r="G317" s="6">
+        <v>1</v>
+      </c>
+      <c r="H317" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" ht="15.5" spans="5:8">
+      <c r="E318" s="23" t="s">
+        <v>262</v>
+      </c>
+      <c r="F318" s="6">
+        <v>1</v>
+      </c>
+      <c r="G318" s="6">
+        <v>1</v>
+      </c>
+      <c r="H318" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" ht="15.5" spans="5:8">
+      <c r="E319" s="23" t="s">
+        <v>259</v>
+      </c>
+      <c r="F319" s="6">
+        <v>1</v>
+      </c>
+      <c r="G319" s="6">
+        <v>1</v>
+      </c>
+      <c r="H319" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" ht="15.5" spans="5:8">
+      <c r="E320" s="23" t="s">
+        <v>263</v>
+      </c>
+      <c r="F320" s="6">
+        <v>1</v>
+      </c>
+      <c r="G320" s="6">
+        <v>1</v>
+      </c>
+      <c r="H320" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" ht="15.5" spans="5:8">
+      <c r="E321" s="23" t="s">
+        <v>264</v>
+      </c>
+      <c r="F321" s="6">
+        <v>1</v>
+      </c>
+      <c r="G321" s="6">
+        <v>1</v>
+      </c>
+      <c r="H321" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" ht="15.5" spans="5:8">
+      <c r="E322" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="F322" s="6">
+        <v>1</v>
+      </c>
+      <c r="G322" s="6">
+        <v>1</v>
+      </c>
+      <c r="H322" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" ht="15.5" spans="5:8">
+      <c r="E323" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="F323" s="6">
+        <v>1</v>
+      </c>
+      <c r="G323" s="6">
+        <v>1</v>
+      </c>
+      <c r="H323" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" ht="15.5" spans="5:8">
+      <c r="E324" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="F324" s="6">
+        <v>1</v>
+      </c>
+      <c r="G324" s="6">
+        <v>1</v>
+      </c>
+      <c r="H324" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" ht="15.5" spans="2:8">
+      <c r="B325" s="3">
+        <v>1023</v>
+      </c>
+      <c r="C325" s="3">
+        <v>1</v>
+      </c>
+      <c r="D325" t="s">
+        <v>268</v>
+      </c>
+      <c r="E325" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="F325" s="6">
+        <v>1</v>
+      </c>
+      <c r="G325" s="6">
+        <v>1</v>
+      </c>
+      <c r="H325" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" ht="15.5" spans="5:8">
+      <c r="E326" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="F326" s="6">
+        <v>1</v>
+      </c>
+      <c r="G326" s="6">
+        <v>1</v>
+      </c>
+      <c r="H326" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" ht="15.5" spans="5:8">
+      <c r="E327" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="F327" s="6">
+        <v>1</v>
+      </c>
+      <c r="G327" s="6">
+        <v>1</v>
+      </c>
+      <c r="H327" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" ht="15.5" spans="5:8">
+      <c r="E328" s="23" t="s">
+        <v>271</v>
+      </c>
+      <c r="F328" s="6">
+        <v>1</v>
+      </c>
+      <c r="G328" s="6">
+        <v>1</v>
+      </c>
+      <c r="H328" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" ht="15.5" spans="5:8">
+      <c r="E329" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="F329" s="6">
+        <v>1</v>
+      </c>
+      <c r="G329" s="6">
+        <v>1</v>
+      </c>
+      <c r="H329" s="6">
         <v>1</v>
       </c>
     </row>
